--- a/files/FA/FA_AEON.xlsx
+++ b/files/FA/FA_AEON.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17127"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xyi17\Desktop\B.C.S\FYP\FYP-StockScreener\files\FA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10395" yWindow="-105" windowWidth="14850" windowHeight="12735"/>
+    <workbookView xWindow="10395" yWindow="-105" windowWidth="14850" windowHeight="12735" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Highlights" sheetId="2" r:id="rId1"/>
@@ -18,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="255">
   <si>
     <t>Revenue</t>
   </si>
@@ -788,9 +793,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="#,##0.0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1457,7 +1462,7 @@
     <xf numFmtId="3" fontId="1" fillId="34" borderId="2">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="34" borderId="2">
+    <xf numFmtId="164" fontId="1" fillId="34" borderId="2">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="34" borderId="2">
@@ -1466,7 +1471,7 @@
     <xf numFmtId="3" fontId="1" fillId="35" borderId="2">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="35" borderId="2">
+    <xf numFmtId="164" fontId="1" fillId="35" borderId="2">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="35" borderId="2">
@@ -1475,7 +1480,7 @@
     <xf numFmtId="3" fontId="8" fillId="34" borderId="2">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="8" fillId="34" borderId="2">
+    <xf numFmtId="164" fontId="8" fillId="34" borderId="2">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="8" fillId="34" borderId="2">
@@ -1484,19 +1489,19 @@
     <xf numFmtId="3" fontId="8" fillId="35" borderId="2">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="8" fillId="35" borderId="2">
+    <xf numFmtId="164" fontId="8" fillId="35" borderId="2">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="8" fillId="35" borderId="2">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="34" borderId="2">
+    <xf numFmtId="164" fontId="11" fillId="34" borderId="2">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="34" borderId="2">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="35" borderId="2">
+    <xf numFmtId="164" fontId="11" fillId="35" borderId="2">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="35" borderId="2">
@@ -1531,7 +1536,7 @@
     <xf numFmtId="3" fontId="1" fillId="34" borderId="2" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="34" borderId="2" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="34" borderId="2" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="34" borderId="2" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1540,7 +1545,7 @@
     <xf numFmtId="3" fontId="1" fillId="35" borderId="2" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="35" borderId="2" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="35" borderId="2" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="35" borderId="2" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1549,7 +1554,7 @@
     <xf numFmtId="3" fontId="8" fillId="34" borderId="2" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="8" fillId="34" borderId="2" xfId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="8" fillId="34" borderId="2" xfId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="8" fillId="34" borderId="2" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1558,19 +1563,19 @@
     <xf numFmtId="3" fontId="8" fillId="35" borderId="2" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="8" fillId="35" borderId="2" xfId="63" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="8" fillId="35" borderId="2" xfId="63" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="8" fillId="35" borderId="2" xfId="64" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="34" borderId="2" xfId="65" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="11" fillId="34" borderId="2" xfId="65" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="34" borderId="2" xfId="66" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="35" borderId="2" xfId="67" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="11" fillId="35" borderId="2" xfId="67" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="35" borderId="2" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1654,6 +1659,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1701,7 +1709,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1734,9 +1742,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1769,6 +1794,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1945,18 +1987,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y26"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.5703125" customWidth="1"/>
     <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
-    <col min="3" max="25" width="11.85546875" customWidth="1"/>
+    <col min="3" max="12" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1969,21 +2011,8 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-    </row>
-    <row r="2" spans="1:25" ht="20.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
@@ -1998,21 +2027,8 @@
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2025,244 +2041,114 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="X4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y4" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="5" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="R5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="T5" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="U5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="V5" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="W5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="X5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y5" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>54</v>
+      <c r="C6" s="19">
+        <v>1740.96</v>
       </c>
       <c r="D6" s="19">
-        <v>517.72500000000002</v>
+        <v>2137.59</v>
       </c>
       <c r="E6" s="19">
-        <v>195.39</v>
+        <v>2541.2399999999998</v>
       </c>
       <c r="F6" s="19">
-        <v>183.69</v>
+        <v>4956.12</v>
       </c>
       <c r="G6" s="19">
-        <v>476.77499999999998</v>
+        <v>4914</v>
       </c>
       <c r="H6" s="19">
-        <v>356.26499999999999</v>
+        <v>4422.6000000000004</v>
       </c>
       <c r="I6" s="19">
-        <v>451.91250000000002</v>
-      </c>
-      <c r="J6" s="19">
-        <v>574.76250000000005</v>
-      </c>
-      <c r="K6" s="19">
-        <v>947.7</v>
-      </c>
-      <c r="L6" s="19">
-        <v>859.95</v>
-      </c>
-      <c r="M6" s="19">
-        <v>1070.55</v>
-      </c>
-      <c r="N6" s="19">
-        <v>1860.3</v>
-      </c>
-      <c r="O6" s="19">
-        <v>1474.2</v>
-      </c>
-      <c r="P6" s="19">
-        <v>1740.96</v>
-      </c>
-      <c r="Q6" s="19">
-        <v>2137.59</v>
-      </c>
-      <c r="R6" s="19">
-        <v>2541.2399999999998</v>
-      </c>
-      <c r="S6" s="19">
-        <v>4956.12</v>
-      </c>
-      <c r="T6" s="19">
-        <v>4914</v>
-      </c>
-      <c r="U6" s="19">
-        <v>4422.6000000000004</v>
-      </c>
-      <c r="V6" s="19">
         <v>3832.92</v>
       </c>
-      <c r="W6" s="22">
+      <c r="J6" s="22">
         <v>4113.72</v>
       </c>
-      <c r="X6" s="19"/>
-      <c r="Y6" s="19"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>55</v>
       </c>
@@ -2270,72 +2156,33 @@
         <v>56</v>
       </c>
       <c r="C7" s="13">
-        <v>34.051000000000002</v>
+        <v>137.06700000000001</v>
       </c>
       <c r="D7" s="13">
-        <v>82.650999999999996</v>
+        <v>330.90800000000002</v>
       </c>
       <c r="E7" s="13">
-        <v>15.381</v>
+        <v>341.05200000000002</v>
       </c>
       <c r="F7" s="13">
-        <v>19.584</v>
+        <v>454.52699999999999</v>
       </c>
       <c r="G7" s="13">
-        <v>8.4779999999999998</v>
+        <v>313.56</v>
       </c>
       <c r="H7" s="13">
-        <v>101.40799699999999</v>
+        <v>76.742000000000004</v>
       </c>
       <c r="I7" s="13">
-        <v>70.426581999999996</v>
-      </c>
-      <c r="J7" s="13">
-        <v>87.077003000000005</v>
-      </c>
-      <c r="K7" s="13">
-        <v>82.609001000000006</v>
-      </c>
-      <c r="L7" s="13">
-        <v>92.362999000000002</v>
-      </c>
-      <c r="M7" s="13">
-        <v>53.405000000000001</v>
-      </c>
-      <c r="N7" s="13">
-        <v>185.261</v>
-      </c>
-      <c r="O7" s="13">
-        <v>158.39400000000001</v>
-      </c>
-      <c r="P7" s="13">
-        <v>137.06700000000001</v>
-      </c>
-      <c r="Q7" s="13">
-        <v>330.90800000000002</v>
-      </c>
-      <c r="R7" s="13">
-        <v>341.05200000000002</v>
-      </c>
-      <c r="S7" s="13">
-        <v>454.52699999999999</v>
-      </c>
-      <c r="T7" s="13">
-        <v>313.56</v>
-      </c>
-      <c r="U7" s="13">
-        <v>76.742000000000004</v>
-      </c>
-      <c r="V7" s="13">
         <v>213.857</v>
       </c>
-      <c r="W7" s="16">
+      <c r="J7" s="16">
         <v>110.10299999999999</v>
       </c>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="13"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>57</v>
       </c>
@@ -2358,57 +2205,18 @@
         <v>0</v>
       </c>
       <c r="H8" s="13">
-        <v>0</v>
+        <v>12.670999999999999</v>
       </c>
       <c r="I8" s="13">
-        <v>0</v>
-      </c>
-      <c r="J8" s="13">
-        <v>0</v>
-      </c>
-      <c r="K8" s="13">
-        <v>0</v>
-      </c>
-      <c r="L8" s="13">
-        <v>0</v>
-      </c>
-      <c r="M8" s="13">
-        <v>0</v>
-      </c>
-      <c r="N8" s="13">
-        <v>0</v>
-      </c>
-      <c r="O8" s="13">
-        <v>0</v>
-      </c>
-      <c r="P8" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="13">
-        <v>0</v>
-      </c>
-      <c r="R8" s="13">
-        <v>0</v>
-      </c>
-      <c r="S8" s="13">
-        <v>0</v>
-      </c>
-      <c r="T8" s="13">
-        <v>0</v>
-      </c>
-      <c r="U8" s="13">
-        <v>12.670999999999999</v>
-      </c>
-      <c r="V8" s="13">
         <v>10.935</v>
       </c>
-      <c r="W8" s="16">
+      <c r="J8" s="16">
         <v>16.658999999999999</v>
       </c>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>59</v>
       </c>
@@ -2416,145 +2224,67 @@
         <v>60</v>
       </c>
       <c r="C9" s="13">
-        <v>118.822002</v>
+        <v>0</v>
       </c>
       <c r="D9" s="13">
-        <v>116.024002</v>
+        <v>0</v>
       </c>
       <c r="E9" s="13">
-        <v>151.435002</v>
+        <v>0</v>
       </c>
       <c r="F9" s="13">
-        <v>147.751003</v>
+        <v>0</v>
       </c>
       <c r="G9" s="13">
-        <v>100.46799900000001</v>
+        <v>0</v>
       </c>
       <c r="H9" s="13">
-        <v>96.089003000000005</v>
+        <v>136.4</v>
       </c>
       <c r="I9" s="13">
-        <v>0.97</v>
-      </c>
-      <c r="J9" s="13">
-        <v>0</v>
-      </c>
-      <c r="K9" s="13">
-        <v>0</v>
-      </c>
-      <c r="L9" s="13">
-        <v>0.307</v>
-      </c>
-      <c r="M9" s="13">
-        <v>0.625</v>
-      </c>
-      <c r="N9" s="13">
-        <v>0</v>
-      </c>
-      <c r="O9" s="13">
-        <v>159.5</v>
-      </c>
-      <c r="P9" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="13">
-        <v>0</v>
-      </c>
-      <c r="R9" s="13">
-        <v>0</v>
-      </c>
-      <c r="S9" s="13">
-        <v>0</v>
-      </c>
-      <c r="T9" s="13">
-        <v>0</v>
-      </c>
-      <c r="U9" s="13">
-        <v>136.4</v>
-      </c>
-      <c r="V9" s="13">
         <v>769.87199999999996</v>
       </c>
-      <c r="W9" s="16">
+      <c r="J9" s="16">
         <v>864.66700000000003</v>
       </c>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="13"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>61</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>54</v>
+      <c r="C10" s="19">
+        <v>1603.893</v>
       </c>
       <c r="D10" s="19">
-        <v>551.09800199999995</v>
+        <v>1806.682</v>
       </c>
       <c r="E10" s="19">
-        <v>331.44400200000001</v>
+        <v>2200.1880000000001</v>
       </c>
       <c r="F10" s="19">
-        <v>311.85700400000002</v>
+        <v>4501.5929999999998</v>
       </c>
       <c r="G10" s="19">
-        <v>568.76499899999999</v>
+        <v>4600.4399999999996</v>
       </c>
       <c r="H10" s="19">
-        <v>350.94600500000001</v>
+        <v>4494.9290000000001</v>
       </c>
       <c r="I10" s="19">
-        <v>382.455918</v>
-      </c>
-      <c r="J10" s="19">
-        <v>487.685497</v>
-      </c>
-      <c r="K10" s="19">
-        <v>865.09099900000001</v>
-      </c>
-      <c r="L10" s="19">
-        <v>767.894001</v>
-      </c>
-      <c r="M10" s="19">
-        <v>1017.77</v>
-      </c>
-      <c r="N10" s="19">
-        <v>1675.039</v>
-      </c>
-      <c r="O10" s="19">
-        <v>1475.306</v>
-      </c>
-      <c r="P10" s="19">
-        <v>1603.893</v>
-      </c>
-      <c r="Q10" s="19">
-        <v>1806.682</v>
-      </c>
-      <c r="R10" s="19">
-        <v>2200.1880000000001</v>
-      </c>
-      <c r="S10" s="19">
-        <v>4501.5929999999998</v>
-      </c>
-      <c r="T10" s="19">
-        <v>4600.4399999999996</v>
-      </c>
-      <c r="U10" s="19">
-        <v>4494.9290000000001</v>
-      </c>
-      <c r="V10" s="19">
         <v>4399.87</v>
       </c>
-      <c r="W10" s="22">
+      <c r="J10" s="22">
         <v>4884.9430000000002</v>
       </c>
-      <c r="X10" s="19"/>
-      <c r="Y10" s="19"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
@@ -2564,24 +2294,11 @@
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
+      <c r="J11" s="21"/>
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="18"/>
-      <c r="Y11" s="18"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>63</v>
       </c>
@@ -2589,303 +2306,147 @@
         <v>64</v>
       </c>
       <c r="C12" s="19">
-        <v>451.86700400000001</v>
+        <v>3735.7548830000001</v>
       </c>
       <c r="D12" s="19">
-        <v>603.27301</v>
+        <v>2894.4819339999999</v>
       </c>
       <c r="E12" s="19">
-        <v>692.49401899999998</v>
+        <v>2984.614</v>
       </c>
       <c r="F12" s="19">
-        <v>679.71002199999998</v>
+        <v>3255.6689999999999</v>
       </c>
       <c r="G12" s="19">
-        <v>804.21398899999997</v>
+        <v>3514.4180000000001</v>
       </c>
       <c r="H12" s="19">
-        <v>990.00598100000002</v>
+        <v>3705.4769999999999</v>
       </c>
       <c r="I12" s="19">
-        <v>1200.6400149999999</v>
-      </c>
-      <c r="J12" s="19">
-        <v>1368.2700199999999</v>
+        <v>3834.64</v>
+      </c>
+      <c r="J12" s="22">
+        <v>3966.91</v>
       </c>
       <c r="K12" s="19">
-        <v>1523.780029</v>
+        <v>4095.125</v>
       </c>
       <c r="L12" s="19">
-        <v>1784.5600589999999</v>
-      </c>
-      <c r="M12" s="19">
-        <v>1962.4399410000001</v>
-      </c>
-      <c r="N12" s="19">
-        <v>2886.219971</v>
-      </c>
-      <c r="O12" s="19">
-        <v>3433.0490719999998</v>
-      </c>
-      <c r="P12" s="19">
-        <v>3735.7548830000001</v>
-      </c>
-      <c r="Q12" s="19">
-        <v>2894.4819339999999</v>
-      </c>
-      <c r="R12" s="19">
-        <v>2984.614</v>
-      </c>
-      <c r="S12" s="19">
-        <v>3255.6689999999999</v>
-      </c>
-      <c r="T12" s="19">
-        <v>3514.4180000000001</v>
-      </c>
-      <c r="U12" s="19">
-        <v>3705.4769999999999</v>
-      </c>
-      <c r="V12" s="19">
-        <v>3834.64</v>
-      </c>
-      <c r="W12" s="22">
-        <v>3966.91</v>
-      </c>
-      <c r="X12" s="19">
-        <v>4095.125</v>
-      </c>
-      <c r="Y12" s="19">
         <v>4314.125</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>65</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="24" t="s">
-        <v>54</v>
+      <c r="C13" s="24">
+        <v>8.8174041399196295</v>
       </c>
       <c r="D13" s="24">
-        <v>33.506762976656702</v>
+        <v>-22.519490045460799</v>
       </c>
       <c r="E13" s="24">
-        <v>14.7894912454313</v>
+        <v>3.1139273989332898</v>
       </c>
       <c r="F13" s="24">
-        <v>-1.84608049300712</v>
+        <v>9.0817439039018009</v>
       </c>
       <c r="G13" s="24">
-        <v>18.317218073915601</v>
+        <v>7.9476445547750796</v>
       </c>
       <c r="H13" s="24">
-        <v>23.102307910736901</v>
+        <v>5.4364335716468499</v>
       </c>
       <c r="I13" s="24">
-        <v>21.276036513157202</v>
-      </c>
-      <c r="J13" s="24">
-        <v>13.9617206577943</v>
+        <v>3.4857320663439602</v>
+      </c>
+      <c r="J13" s="26">
+        <v>3.8341777413420699</v>
       </c>
       <c r="K13" s="24">
-        <v>11.3654473698108</v>
+        <v>6.7929453612333903</v>
       </c>
       <c r="L13" s="24">
-        <v>17.114020727200401</v>
-      </c>
-      <c r="M13" s="24">
-        <v>9.9677161944147397</v>
-      </c>
-      <c r="N13" s="24">
-        <v>47.073034476116</v>
-      </c>
-      <c r="O13" s="24">
-        <v>18.9462032171629</v>
-      </c>
-      <c r="P13" s="24">
-        <v>8.8174041399196295</v>
-      </c>
-      <c r="Q13" s="24">
-        <v>-22.519490045460799</v>
-      </c>
-      <c r="R13" s="24">
-        <v>3.1139273989332898</v>
-      </c>
-      <c r="S13" s="24">
-        <v>9.0817439039018009</v>
-      </c>
-      <c r="T13" s="24">
-        <v>7.9476445547750796</v>
-      </c>
-      <c r="U13" s="24">
-        <v>5.4364335716468499</v>
-      </c>
-      <c r="V13" s="24">
-        <v>3.4857320663439602</v>
-      </c>
-      <c r="W13" s="26">
-        <v>3.8341777413420699</v>
-      </c>
-      <c r="X13" s="24">
-        <v>6.7929453612333903</v>
-      </c>
-      <c r="Y13" s="24">
         <v>5.3478221055523303</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="J14" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="K14" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="L14" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="M14" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="N14" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="O14" s="19">
-        <v>938.37</v>
-      </c>
-      <c r="P14" s="19">
+      <c r="C14" s="19">
         <v>1075.9269999999999</v>
       </c>
-      <c r="Q14" s="19">
+      <c r="D14" s="19">
         <v>1159.028</v>
       </c>
-      <c r="R14" s="19">
+      <c r="E14" s="19">
         <v>1171.6489999999999</v>
       </c>
-      <c r="S14" s="19">
+      <c r="F14" s="19">
         <v>1269.7260000000001</v>
       </c>
-      <c r="T14" s="19">
+      <c r="G14" s="19">
         <v>1312.77</v>
       </c>
-      <c r="U14" s="19">
+      <c r="H14" s="19">
         <v>1390.0640000000001</v>
       </c>
-      <c r="V14" s="19">
+      <c r="I14" s="19">
         <v>1439.5260000000001</v>
       </c>
-      <c r="W14" s="22"/>
-      <c r="X14" s="19">
+      <c r="J14" s="22"/>
+      <c r="K14" s="19">
         <v>1687.1914999999999</v>
       </c>
-      <c r="Y14" s="19">
+      <c r="L14" s="19">
         <v>1781.7336250000001</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>67</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="I15" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="J15" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="K15" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="L15" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="M15" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="N15" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="O15" s="24">
-        <v>27.333428107782101</v>
-      </c>
-      <c r="P15" s="24">
+      <c r="C15" s="24">
         <v>28.800792174458099</v>
       </c>
-      <c r="Q15" s="24">
+      <c r="D15" s="24">
         <v>40.042675215398297</v>
       </c>
-      <c r="R15" s="24">
+      <c r="E15" s="24">
         <v>39.256299139520202</v>
       </c>
-      <c r="S15" s="24">
+      <c r="F15" s="24">
         <v>39.0004634992071</v>
       </c>
-      <c r="T15" s="24">
+      <c r="G15" s="24">
         <v>37.353837818950403</v>
       </c>
-      <c r="U15" s="24">
+      <c r="H15" s="24">
         <v>37.513766783601703</v>
       </c>
-      <c r="V15" s="24">
+      <c r="I15" s="24">
         <v>37.540055911376299</v>
       </c>
-      <c r="W15" s="26"/>
-      <c r="X15" s="24">
+      <c r="J15" s="26"/>
+      <c r="K15" s="24">
         <v>41.2</v>
       </c>
-      <c r="Y15" s="24">
+      <c r="L15" s="24">
         <v>41.3</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>68</v>
       </c>
@@ -2893,76 +2454,37 @@
         <v>68</v>
       </c>
       <c r="C16" s="19">
-        <v>37.561</v>
+        <v>341.25599999999997</v>
       </c>
       <c r="D16" s="19">
-        <v>61.158997999999997</v>
+        <v>391.86200000000002</v>
       </c>
       <c r="E16" s="19">
-        <v>82.322999999999993</v>
+        <v>431.02499999999998</v>
       </c>
       <c r="F16" s="19">
-        <v>69.703999999999994</v>
+        <v>440.04700000000003</v>
       </c>
       <c r="G16" s="19">
-        <v>82.906000000000006</v>
+        <v>484.30099999999999</v>
       </c>
       <c r="H16" s="19">
-        <v>103.674002</v>
+        <v>485.61500000000001</v>
       </c>
       <c r="I16" s="19">
-        <v>115.647003</v>
-      </c>
-      <c r="J16" s="19">
-        <v>128.345001</v>
+        <v>443.86099999999999</v>
+      </c>
+      <c r="J16" s="22">
+        <v>454.23</v>
       </c>
       <c r="K16" s="19">
-        <v>139.241005</v>
+        <v>455.714</v>
       </c>
       <c r="L16" s="19">
-        <v>37.875999</v>
-      </c>
-      <c r="M16" s="19">
-        <v>172.58199999999999</v>
-      </c>
-      <c r="N16" s="19">
-        <v>266.54199999999997</v>
-      </c>
-      <c r="O16" s="19">
-        <v>300.97800000000001</v>
-      </c>
-      <c r="P16" s="19">
-        <v>341.25599999999997</v>
-      </c>
-      <c r="Q16" s="19">
-        <v>391.86200000000002</v>
-      </c>
-      <c r="R16" s="19">
-        <v>431.02499999999998</v>
-      </c>
-      <c r="S16" s="19">
-        <v>440.04700000000003</v>
-      </c>
-      <c r="T16" s="19">
-        <v>484.30099999999999</v>
-      </c>
-      <c r="U16" s="19">
-        <v>485.61500000000001</v>
-      </c>
-      <c r="V16" s="19">
-        <v>443.86099999999999</v>
-      </c>
-      <c r="W16" s="22">
-        <v>454.23</v>
-      </c>
-      <c r="X16" s="19">
-        <v>455.714</v>
-      </c>
-      <c r="Y16" s="19">
         <v>510.714</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>67</v>
       </c>
@@ -2970,76 +2492,37 @@
         <v>68</v>
       </c>
       <c r="C17" s="24">
-        <v>8.3124015844272598</v>
+        <v>9.1348605753799905</v>
       </c>
       <c r="D17" s="24">
-        <v>10.1378641156182</v>
+        <v>13.538243075453201</v>
       </c>
       <c r="E17" s="24">
-        <v>11.8879005076288</v>
+        <v>14.4415659780461</v>
       </c>
       <c r="F17" s="24">
-        <v>10.2549613429122</v>
+        <v>13.516331052081799</v>
       </c>
       <c r="G17" s="24">
-        <v>10.308947759425299</v>
+        <v>13.7804040384496</v>
       </c>
       <c r="H17" s="24">
-        <v>10.472058148101199</v>
+        <v>13.1053302989062</v>
       </c>
       <c r="I17" s="24">
-        <v>9.6321130026638304</v>
-      </c>
-      <c r="J17" s="24">
-        <v>9.3800930462541299</v>
+        <v>11.575037030855601</v>
+      </c>
+      <c r="J17" s="26">
+        <v>11.4504740465501</v>
       </c>
       <c r="K17" s="24">
-        <v>9.1378678254090708</v>
+        <v>11.1282073196789</v>
       </c>
       <c r="L17" s="24">
-        <v>2.12242781121215</v>
-      </c>
-      <c r="M17" s="24">
-        <v>8.7942563945196408</v>
-      </c>
-      <c r="N17" s="24">
-        <v>9.2349856448276899</v>
-      </c>
-      <c r="O17" s="24">
-        <v>8.7670753807389801</v>
-      </c>
-      <c r="P17" s="24">
-        <v>9.1348605753799905</v>
-      </c>
-      <c r="Q17" s="24">
-        <v>13.538243075453201</v>
-      </c>
-      <c r="R17" s="24">
-        <v>14.4415659780461</v>
-      </c>
-      <c r="S17" s="24">
-        <v>13.516331052081799</v>
-      </c>
-      <c r="T17" s="24">
-        <v>13.7804040384496</v>
-      </c>
-      <c r="U17" s="24">
-        <v>13.1053302989062</v>
-      </c>
-      <c r="V17" s="24">
-        <v>11.575037030855601</v>
-      </c>
-      <c r="W17" s="26">
-        <v>11.4504740465501</v>
-      </c>
-      <c r="X17" s="24">
-        <v>11.1282073196789</v>
-      </c>
-      <c r="Y17" s="24">
         <v>11.83818271376</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>69</v>
       </c>
@@ -3047,76 +2530,37 @@
         <v>70</v>
       </c>
       <c r="C18" s="19">
-        <v>16.455998999999998</v>
+        <v>133.52900700000001</v>
       </c>
       <c r="D18" s="19">
-        <v>27.754999000000002</v>
+        <v>165.300995</v>
       </c>
       <c r="E18" s="19">
-        <v>34.019001000000003</v>
+        <v>195.35300000000001</v>
       </c>
       <c r="F18" s="19">
-        <v>39.880001</v>
+        <v>212.82499999999999</v>
       </c>
       <c r="G18" s="19">
-        <v>42.870998</v>
+        <v>230.96199999999999</v>
       </c>
       <c r="H18" s="19">
-        <v>46.036999000000002</v>
+        <v>212.70599999999999</v>
       </c>
       <c r="I18" s="19">
-        <v>53.988998000000002</v>
-      </c>
-      <c r="J18" s="19">
-        <v>60.344002000000003</v>
+        <v>133.40700000000001</v>
+      </c>
+      <c r="J18" s="22">
+        <v>116.13</v>
       </c>
       <c r="K18" s="19">
-        <v>63.588000999999998</v>
+        <v>117.556</v>
       </c>
       <c r="L18" s="19">
-        <v>64.247001999999995</v>
-      </c>
-      <c r="M18" s="19">
-        <v>73.204002000000003</v>
-      </c>
-      <c r="N18" s="19">
-        <v>105.150002</v>
-      </c>
-      <c r="O18" s="19">
-        <v>120.603996</v>
-      </c>
-      <c r="P18" s="19">
-        <v>133.52900700000001</v>
-      </c>
-      <c r="Q18" s="19">
-        <v>165.300995</v>
-      </c>
-      <c r="R18" s="19">
-        <v>195.35300000000001</v>
-      </c>
-      <c r="S18" s="19">
-        <v>212.82499999999999</v>
-      </c>
-      <c r="T18" s="19">
-        <v>230.96199999999999</v>
-      </c>
-      <c r="U18" s="19">
-        <v>212.70599999999999</v>
-      </c>
-      <c r="V18" s="19">
-        <v>133.40700000000001</v>
-      </c>
-      <c r="W18" s="22">
-        <v>116.13</v>
-      </c>
-      <c r="X18" s="19">
-        <v>117.556</v>
-      </c>
-      <c r="Y18" s="19">
         <v>148.55600000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>67</v>
       </c>
@@ -3124,76 +2568,37 @@
         <v>70</v>
       </c>
       <c r="C19" s="24">
-        <v>3.6417792966357001</v>
+        <v>3.57435140104185</v>
       </c>
       <c r="D19" s="24">
-        <v>4.6007360747002402</v>
+        <v>5.7109009062483196</v>
       </c>
       <c r="E19" s="24">
-        <v>4.9125335478168202</v>
+        <v>6.5453355107226603</v>
       </c>
       <c r="F19" s="24">
-        <v>5.8672080312507102</v>
+        <v>6.5370588963435798</v>
       </c>
       <c r="G19" s="24">
-        <v>5.3307948613661802</v>
+        <v>6.57184205179919</v>
       </c>
       <c r="H19" s="24">
-        <v>4.6501738255660099</v>
+        <v>5.7403135952537303</v>
       </c>
       <c r="I19" s="24">
-        <v>4.4966848785228901</v>
-      </c>
-      <c r="J19" s="24">
-        <v>4.4102407505793302</v>
+        <v>3.47899672459475</v>
+      </c>
+      <c r="J19" s="26">
+        <v>2.9274674746843301</v>
       </c>
       <c r="K19" s="24">
-        <v>4.1730433389214596</v>
+        <v>2.8706327645676302</v>
       </c>
       <c r="L19" s="24">
-        <v>3.6001591359162002</v>
-      </c>
-      <c r="M19" s="24">
-        <v>3.7302543874385998</v>
-      </c>
-      <c r="N19" s="24">
-        <v>3.6431735299637702</v>
-      </c>
-      <c r="O19" s="24">
-        <v>3.5130286072415302</v>
-      </c>
-      <c r="P19" s="24">
-        <v>3.57435140104185</v>
-      </c>
-      <c r="Q19" s="24">
-        <v>5.7109009062483196</v>
-      </c>
-      <c r="R19" s="24">
-        <v>6.5453355107226603</v>
-      </c>
-      <c r="S19" s="24">
-        <v>6.5370588963435798</v>
-      </c>
-      <c r="T19" s="24">
-        <v>6.57184205179919</v>
-      </c>
-      <c r="U19" s="24">
-        <v>5.7403135952537303</v>
-      </c>
-      <c r="V19" s="24">
-        <v>3.47899672459475</v>
-      </c>
-      <c r="W19" s="26">
-        <v>2.9274674746843301</v>
-      </c>
-      <c r="X19" s="24">
-        <v>2.8706327645676302</v>
-      </c>
-      <c r="Y19" s="24">
         <v>3.44347926868137</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>71</v>
       </c>
@@ -3201,153 +2606,75 @@
         <v>72</v>
       </c>
       <c r="C20" s="20">
-        <v>2.1006E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="D20" s="20">
-        <v>2.9530000000000001E-2</v>
+        <v>0.11774999999999999</v>
       </c>
       <c r="E20" s="20">
-        <v>-1.3583E-2</v>
+        <v>0.13925000000000001</v>
       </c>
       <c r="F20" s="20">
-        <v>3.7503000000000002E-2</v>
+        <v>0.1515</v>
       </c>
       <c r="G20" s="20">
-        <v>3.6239E-2</v>
+        <v>0.16450000000000001</v>
       </c>
       <c r="H20" s="20">
-        <v>4.2562999999999997E-2</v>
+        <v>0.152</v>
       </c>
       <c r="I20" s="20">
-        <v>3.8436999999999999E-2</v>
-      </c>
-      <c r="J20" s="20">
-        <v>4.2999999999999997E-2</v>
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="J20" s="23">
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="K20" s="20">
-        <v>4.5311999999999998E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="L20" s="20">
-        <v>4.5749999999999999E-2</v>
-      </c>
-      <c r="M20" s="20">
-        <v>5.2124999999999998E-2</v>
-      </c>
-      <c r="N20" s="20">
-        <v>7.4874999999999997E-2</v>
-      </c>
-      <c r="O20" s="20">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="P20" s="20">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="Q20" s="20">
-        <v>0.11774999999999999</v>
-      </c>
-      <c r="R20" s="20">
-        <v>0.13925000000000001</v>
-      </c>
-      <c r="S20" s="20">
-        <v>0.1515</v>
-      </c>
-      <c r="T20" s="20">
-        <v>0.16450000000000001</v>
-      </c>
-      <c r="U20" s="20">
-        <v>0.152</v>
-      </c>
-      <c r="V20" s="20">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="W20" s="23">
-        <v>8.2000000000000003E-2</v>
-      </c>
-      <c r="X20" s="20">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="Y20" s="20">
         <v>0.105</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>65</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="24" t="s">
-        <v>54</v>
+      <c r="C21" s="24">
+        <v>10.465116</v>
       </c>
       <c r="D21" s="24">
-        <v>40.575915999999999</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>54</v>
+        <v>23.947368000000001</v>
+      </c>
+      <c r="E21" s="24">
+        <v>18.259022999999999</v>
+      </c>
+      <c r="F21" s="24">
+        <v>8.7971269999999997</v>
       </c>
       <c r="G21" s="24">
-        <v>-3.3724340000000002</v>
+        <v>8.5808579999999992</v>
       </c>
       <c r="H21" s="24">
-        <v>17.450675</v>
+        <v>-7.5987840000000002</v>
       </c>
       <c r="I21" s="24">
-        <v>-9.69163</v>
-      </c>
-      <c r="J21" s="24">
-        <v>11.869918999999999</v>
+        <v>-37.5</v>
+      </c>
+      <c r="J21" s="26">
+        <v>-37.404580152671798</v>
       </c>
       <c r="K21" s="24">
-        <v>5.3779070000000004</v>
+        <v>-11.578947368421</v>
       </c>
       <c r="L21" s="24">
-        <v>0.96551699999999996</v>
-      </c>
-      <c r="M21" s="24">
-        <v>13.934426</v>
-      </c>
-      <c r="N21" s="24">
-        <v>43.645083999999997</v>
-      </c>
-      <c r="O21" s="24">
-        <v>14.858097000000001</v>
-      </c>
-      <c r="P21" s="24">
-        <v>10.465116</v>
-      </c>
-      <c r="Q21" s="24">
-        <v>23.947368000000001</v>
-      </c>
-      <c r="R21" s="24">
-        <v>18.259022999999999</v>
-      </c>
-      <c r="S21" s="24">
-        <v>8.7971269999999997</v>
-      </c>
-      <c r="T21" s="24">
-        <v>8.5808579999999992</v>
-      </c>
-      <c r="U21" s="24">
-        <v>-7.5987840000000002</v>
-      </c>
-      <c r="V21" s="24">
-        <v>-37.5</v>
-      </c>
-      <c r="W21" s="26">
-        <v>-37.404580152671798</v>
-      </c>
-      <c r="X21" s="24">
-        <v>-11.578947368421</v>
-      </c>
-      <c r="Y21" s="24">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
@@ -3357,24 +2684,11 @@
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
+      <c r="J22" s="21"/>
       <c r="K22" s="18"/>
       <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="18"/>
-      <c r="S22" s="18"/>
-      <c r="T22" s="18"/>
-      <c r="U22" s="18"/>
-      <c r="V22" s="18"/>
-      <c r="W22" s="21"/>
-      <c r="X22" s="18"/>
-      <c r="Y22" s="18"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>74</v>
       </c>
@@ -3382,72 +2696,33 @@
         <v>75</v>
       </c>
       <c r="C23" s="19">
-        <v>56.703999000000003</v>
+        <v>273.517</v>
       </c>
       <c r="D23" s="19">
-        <v>47.987000000000002</v>
+        <v>370.601</v>
       </c>
       <c r="E23" s="19">
-        <v>65.872001999999995</v>
+        <v>362.83100000000002</v>
       </c>
       <c r="F23" s="19">
-        <v>70.269997000000004</v>
+        <v>414.45100000000002</v>
       </c>
       <c r="G23" s="19">
-        <v>77.249001000000007</v>
+        <v>459.21899999999999</v>
       </c>
       <c r="H23" s="19">
-        <v>138.86300700000001</v>
+        <v>364.98899999999998</v>
       </c>
       <c r="I23" s="19">
-        <v>101.76300000000001</v>
-      </c>
-      <c r="J23" s="19">
-        <v>120.945999</v>
-      </c>
-      <c r="K23" s="19">
-        <v>183.766998</v>
-      </c>
-      <c r="L23" s="19">
-        <v>141.36199999999999</v>
-      </c>
-      <c r="M23" s="19">
-        <v>251.84200000000001</v>
-      </c>
-      <c r="N23" s="19">
-        <v>334.20299999999997</v>
-      </c>
-      <c r="O23" s="19">
-        <v>331</v>
-      </c>
-      <c r="P23" s="19">
-        <v>273.517</v>
-      </c>
-      <c r="Q23" s="19">
-        <v>370.601</v>
-      </c>
-      <c r="R23" s="19">
-        <v>362.83100000000002</v>
-      </c>
-      <c r="S23" s="19">
-        <v>414.45100000000002</v>
-      </c>
-      <c r="T23" s="19">
-        <v>459.21899999999999</v>
-      </c>
-      <c r="U23" s="19">
-        <v>364.98899999999998</v>
-      </c>
-      <c r="V23" s="19">
         <v>282.238</v>
       </c>
-      <c r="W23" s="22">
+      <c r="J23" s="22">
         <v>425.92399999999998</v>
       </c>
-      <c r="X23" s="19"/>
-      <c r="Y23" s="19"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>76</v>
       </c>
@@ -3455,76 +2730,37 @@
         <v>77</v>
       </c>
       <c r="C24" s="19">
-        <v>-102.97199999999999</v>
+        <v>-94.087999999999994</v>
       </c>
       <c r="D24" s="19">
-        <v>-46.210999000000001</v>
+        <v>-119.04300000000001</v>
       </c>
       <c r="E24" s="19">
-        <v>-96.915001000000004</v>
+        <v>-315.13099999999997</v>
       </c>
       <c r="F24" s="19">
-        <v>-49.734000999999999</v>
+        <v>-198.92699999999999</v>
       </c>
       <c r="G24" s="19">
-        <v>-50.738998000000002</v>
+        <v>-522.38099999999997</v>
       </c>
       <c r="H24" s="19">
-        <v>-106.841003</v>
+        <v>-692.67</v>
       </c>
       <c r="I24" s="19">
-        <v>-24.600999999999999</v>
-      </c>
-      <c r="J24" s="19">
-        <v>-91.305999999999997</v>
+        <v>-704.87699999999995</v>
+      </c>
+      <c r="J24" s="22">
+        <v>-783.28200000000004</v>
       </c>
       <c r="K24" s="19">
-        <v>-175.695999</v>
+        <v>-485</v>
       </c>
       <c r="L24" s="19">
-        <v>-119.23699999999999</v>
-      </c>
-      <c r="M24" s="19">
-        <v>-275.375</v>
-      </c>
-      <c r="N24" s="19">
-        <v>-236.721</v>
-      </c>
-      <c r="O24" s="19">
-        <v>-486.16199999999998</v>
-      </c>
-      <c r="P24" s="19">
-        <v>-94.087999999999994</v>
-      </c>
-      <c r="Q24" s="19">
-        <v>-119.04300000000001</v>
-      </c>
-      <c r="R24" s="19">
-        <v>-315.13099999999997</v>
-      </c>
-      <c r="S24" s="19">
-        <v>-198.92699999999999</v>
-      </c>
-      <c r="T24" s="19">
-        <v>-522.38099999999997</v>
-      </c>
-      <c r="U24" s="19">
-        <v>-692.67</v>
-      </c>
-      <c r="V24" s="19">
-        <v>-704.87699999999995</v>
-      </c>
-      <c r="W24" s="22">
-        <v>-783.28200000000004</v>
-      </c>
-      <c r="X24" s="19">
-        <v>-485</v>
-      </c>
-      <c r="Y24" s="19">
         <v>-435.8</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>78</v>
       </c>
@@ -3532,76 +2768,37 @@
         <v>79</v>
       </c>
       <c r="C25" s="19">
-        <v>-46.268002000000003</v>
+        <v>179.429</v>
       </c>
       <c r="D25" s="19">
-        <v>1.7760009999999999</v>
+        <v>251.55799999999999</v>
       </c>
       <c r="E25" s="19">
-        <v>-31.042998999999998</v>
+        <v>47.7</v>
       </c>
       <c r="F25" s="19">
-        <v>20.535995</v>
+        <v>215.524</v>
       </c>
       <c r="G25" s="19">
-        <v>26.510002</v>
+        <v>-63.161999999999999</v>
       </c>
       <c r="H25" s="19">
-        <v>32.022002999999998</v>
+        <v>-327.68099999999998</v>
       </c>
       <c r="I25" s="19">
-        <v>77.162001000000004</v>
-      </c>
-      <c r="J25" s="19">
-        <v>29.639999</v>
+        <v>-422.63900000000001</v>
+      </c>
+      <c r="J25" s="22">
+        <v>-357.358</v>
       </c>
       <c r="K25" s="19">
-        <v>8.0709990000000005</v>
+        <v>-57.866999999999997</v>
       </c>
       <c r="L25" s="19">
-        <v>22.125</v>
-      </c>
-      <c r="M25" s="19">
-        <v>-23.533000000000001</v>
-      </c>
-      <c r="N25" s="19">
-        <v>97.481999999999999</v>
-      </c>
-      <c r="O25" s="19">
-        <v>-155.16200000000001</v>
-      </c>
-      <c r="P25" s="19">
-        <v>179.429</v>
-      </c>
-      <c r="Q25" s="19">
-        <v>251.55799999999999</v>
-      </c>
-      <c r="R25" s="19">
-        <v>47.7</v>
-      </c>
-      <c r="S25" s="19">
-        <v>215.524</v>
-      </c>
-      <c r="T25" s="19">
-        <v>-63.161999999999999</v>
-      </c>
-      <c r="U25" s="19">
-        <v>-327.68099999999998</v>
-      </c>
-      <c r="V25" s="19">
-        <v>-422.63900000000001</v>
-      </c>
-      <c r="W25" s="22">
-        <v>-357.358</v>
-      </c>
-      <c r="X25" s="19">
-        <v>-57.866999999999997</v>
-      </c>
-      <c r="Y25" s="19">
         <v>92.566999999999993</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>80</v>
       </c>
@@ -3616,19 +2813,6 @@
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="7"/>
-      <c r="X26" s="7"/>
-      <c r="Y26" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6711,18 +5895,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U89"/>
+  <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.140625" customWidth="1"/>
     <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
-    <col min="3" max="21" width="11.85546875" customWidth="1"/>
+    <col min="3" max="9" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6732,20 +5916,8 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-    </row>
-    <row r="2" spans="1:21" ht="20.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>118</v>
       </c>
@@ -6757,20 +5929,8 @@
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -6780,146 +5940,62 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="U4" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="5" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="R5" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="T5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="U5" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>119</v>
       </c>
@@ -6931,20 +6007,8 @@
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>0</v>
       </c>
@@ -6952,64 +6016,28 @@
         <v>120</v>
       </c>
       <c r="C7" s="14">
-        <v>33.506762999999999</v>
+        <v>-19.960885999999999</v>
       </c>
       <c r="D7" s="14">
-        <v>14.789491</v>
+        <v>5.338851</v>
       </c>
       <c r="E7" s="14">
-        <v>-1.8460799999999999</v>
+        <v>3.1139250000000001</v>
       </c>
       <c r="F7" s="14">
-        <v>18.317218</v>
+        <v>9.0817440000000005</v>
       </c>
       <c r="G7" s="14">
-        <v>23.102308000000001</v>
+        <v>7.9476449999999996</v>
       </c>
       <c r="H7" s="14">
-        <v>21.275728000000001</v>
+        <v>5.4364340000000002</v>
       </c>
       <c r="I7" s="14">
-        <v>13.961836999999999</v>
-      </c>
-      <c r="J7" s="14">
-        <v>11.365688</v>
-      </c>
-      <c r="K7" s="14">
-        <v>17.114201999999999</v>
-      </c>
-      <c r="L7" s="14">
-        <v>9.9677589999999991</v>
-      </c>
-      <c r="M7" s="14">
-        <v>47.072657</v>
-      </c>
-      <c r="N7" s="14">
-        <v>18.946200000000001</v>
-      </c>
-      <c r="O7" s="14">
-        <v>-19.960885999999999</v>
-      </c>
-      <c r="P7" s="14">
-        <v>5.338851</v>
-      </c>
-      <c r="Q7" s="14">
-        <v>3.1139250000000001</v>
-      </c>
-      <c r="R7" s="14">
-        <v>9.0817440000000005</v>
-      </c>
-      <c r="S7" s="14">
-        <v>7.9476449999999996</v>
-      </c>
-      <c r="T7" s="14">
-        <v>5.4364340000000002</v>
-      </c>
-      <c r="U7" s="14">
         <v>3.4857320000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>68</v>
       </c>
@@ -7017,64 +6045,28 @@
         <v>121</v>
       </c>
       <c r="C8" s="14">
-        <v>62.825800000000001</v>
+        <v>13.382372999999999</v>
       </c>
       <c r="D8" s="14">
-        <v>34.604886</v>
+        <v>14.829336</v>
       </c>
       <c r="E8" s="14">
-        <v>-15.328644000000001</v>
+        <v>9.9940800000000003</v>
       </c>
       <c r="F8" s="14">
-        <v>18.940089</v>
+        <v>2.0931500000000001</v>
       </c>
       <c r="G8" s="14">
-        <v>25.050059000000001</v>
+        <v>10.056653000000001</v>
       </c>
       <c r="H8" s="14">
-        <v>11.548702</v>
+        <v>0.27131899999999998</v>
       </c>
       <c r="I8" s="14">
-        <v>10.979963</v>
-      </c>
-      <c r="J8" s="14">
-        <v>8.4896209999999996</v>
-      </c>
-      <c r="K8" s="14">
-        <v>-72.798242999999999</v>
-      </c>
-      <c r="L8" s="14">
-        <v>355.65002199999998</v>
-      </c>
-      <c r="M8" s="14">
-        <v>54.443685000000002</v>
-      </c>
-      <c r="N8" s="14">
-        <v>12.91954</v>
-      </c>
-      <c r="O8" s="14">
-        <v>13.382372999999999</v>
-      </c>
-      <c r="P8" s="14">
-        <v>14.829336</v>
-      </c>
-      <c r="Q8" s="14">
-        <v>9.9940800000000003</v>
-      </c>
-      <c r="R8" s="14">
-        <v>2.0931500000000001</v>
-      </c>
-      <c r="S8" s="14">
-        <v>10.056653000000001</v>
-      </c>
-      <c r="T8" s="14">
-        <v>0.27131899999999998</v>
-      </c>
-      <c r="U8" s="14">
         <v>-8.5981690000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>94</v>
       </c>
@@ -7082,64 +6074,28 @@
         <v>122</v>
       </c>
       <c r="C9" s="14">
-        <v>67.216254000000006</v>
+        <v>11.818384999999999</v>
       </c>
       <c r="D9" s="14">
-        <v>39.988953000000002</v>
+        <v>21.756350000000001</v>
       </c>
       <c r="E9" s="14">
-        <v>-24.250104</v>
+        <v>19.384042000000001</v>
       </c>
       <c r="F9" s="14">
-        <v>20.528645000000001</v>
+        <v>1.043506</v>
       </c>
       <c r="G9" s="14">
-        <v>28.088787</v>
+        <v>10.876477</v>
       </c>
       <c r="H9" s="14">
-        <v>7.1028960000000003</v>
+        <v>-7.3471140000000004</v>
       </c>
       <c r="I9" s="14">
-        <v>9.509036</v>
-      </c>
-      <c r="J9" s="14">
-        <v>5.715109</v>
-      </c>
-      <c r="K9" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="M9" s="14">
-        <v>41.094791000000001</v>
-      </c>
-      <c r="N9" s="14">
-        <v>11.955883</v>
-      </c>
-      <c r="O9" s="14">
-        <v>11.818384999999999</v>
-      </c>
-      <c r="P9" s="14">
-        <v>21.756350000000001</v>
-      </c>
-      <c r="Q9" s="14">
-        <v>19.384042000000001</v>
-      </c>
-      <c r="R9" s="14">
-        <v>1.043506</v>
-      </c>
-      <c r="S9" s="14">
-        <v>10.876477</v>
-      </c>
-      <c r="T9" s="14">
-        <v>-7.3471140000000004</v>
-      </c>
-      <c r="U9" s="14">
         <v>-24.885470000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>123</v>
       </c>
@@ -7147,64 +6103,28 @@
         <v>124</v>
       </c>
       <c r="C10" s="14">
-        <v>68.661888000000005</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>54</v>
+        <v>10.716892</v>
+      </c>
+      <c r="D10" s="14">
+        <v>23.794082</v>
+      </c>
+      <c r="E10" s="14">
+        <v>20.011977999999999</v>
       </c>
       <c r="F10" s="14">
-        <v>-4.1875679999999997</v>
+        <v>7.280939</v>
       </c>
       <c r="G10" s="14">
-        <v>20.484165999999998</v>
+        <v>8.5220249999999993</v>
       </c>
       <c r="H10" s="14">
-        <v>17.273063</v>
+        <v>-7.904331</v>
       </c>
       <c r="I10" s="14">
-        <v>12.143214</v>
-      </c>
-      <c r="J10" s="14">
-        <v>5.0260189999999998</v>
-      </c>
-      <c r="K10" s="14">
-        <v>1.0363599999999999</v>
-      </c>
-      <c r="L10" s="14">
-        <v>13.941504</v>
-      </c>
-      <c r="M10" s="14">
-        <v>43.675209000000002</v>
-      </c>
-      <c r="N10" s="14">
-        <v>14.668746000000001</v>
-      </c>
-      <c r="O10" s="14">
-        <v>10.716892</v>
-      </c>
-      <c r="P10" s="14">
-        <v>23.794082</v>
-      </c>
-      <c r="Q10" s="14">
-        <v>20.011977999999999</v>
-      </c>
-      <c r="R10" s="14">
-        <v>7.280939</v>
-      </c>
-      <c r="S10" s="14">
-        <v>8.5220249999999993</v>
-      </c>
-      <c r="T10" s="14">
-        <v>-7.904331</v>
-      </c>
-      <c r="U10" s="14">
         <v>-37.281036</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>125</v>
       </c>
@@ -7223,53 +6143,17 @@
       <c r="F11" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="K11" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="L11" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="M11" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="N11" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="O11" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="P11" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q11" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="R11" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="S11" s="14">
+      <c r="G11" s="14">
         <v>8.5808579999999992</v>
       </c>
-      <c r="T11" s="14">
+      <c r="H11" s="14">
         <v>-7.902736</v>
       </c>
-      <c r="U11" s="14">
+      <c r="I11" s="14">
         <v>-37.293728999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>127</v>
       </c>
@@ -7288,53 +6172,17 @@
       <c r="F12" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="G12" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="K12" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="L12" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="M12" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="N12" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="O12" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="P12" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q12" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="R12" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="S12" s="14">
+      <c r="G12" s="14">
         <v>8.5808579999999992</v>
       </c>
-      <c r="T12" s="14">
+      <c r="H12" s="14">
         <v>-7.902736</v>
       </c>
-      <c r="U12" s="14">
+      <c r="I12" s="14">
         <v>-37.293728999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>129</v>
       </c>
@@ -7353,53 +6201,17 @@
       <c r="F13" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="K13" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="L13" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="M13" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="N13" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="O13" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="P13" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q13" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="R13" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="S13" s="14">
+      <c r="G13" s="14">
         <v>7.9764699999999999</v>
       </c>
-      <c r="T13" s="14">
+      <c r="H13" s="14">
         <v>-12.613768</v>
       </c>
-      <c r="U13" s="14">
+      <c r="I13" s="14">
         <v>-33.545470000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>131</v>
       </c>
@@ -7407,64 +6219,28 @@
         <v>132</v>
       </c>
       <c r="C14" s="14">
-        <v>-60.000002000000002</v>
+        <v>0</v>
       </c>
       <c r="D14" s="14">
-        <v>50.000008999999999</v>
+        <v>33.333333000000003</v>
       </c>
       <c r="E14" s="14">
-        <v>122.222217</v>
+        <v>6.25</v>
       </c>
       <c r="F14" s="14">
-        <v>0</v>
+        <v>35.294117999999997</v>
       </c>
       <c r="G14" s="14">
-        <v>13.65638</v>
+        <v>27.536231999999998</v>
       </c>
       <c r="H14" s="14">
-        <v>0</v>
+        <v>-9.0909089999999999</v>
       </c>
       <c r="I14" s="14">
-        <v>0</v>
-      </c>
-      <c r="J14" s="14">
-        <v>-28.000004000000001</v>
-      </c>
-      <c r="K14" s="14">
-        <v>20.000008000000001</v>
-      </c>
-      <c r="L14" s="14">
-        <v>24.999997</v>
-      </c>
-      <c r="M14" s="14">
-        <v>16.481480999999999</v>
-      </c>
-      <c r="N14" s="14">
-        <v>43.084260999999998</v>
-      </c>
-      <c r="O14" s="14">
-        <v>0</v>
-      </c>
-      <c r="P14" s="14">
-        <v>33.333333000000003</v>
-      </c>
-      <c r="Q14" s="14">
-        <v>6.25</v>
-      </c>
-      <c r="R14" s="14">
-        <v>35.294117999999997</v>
-      </c>
-      <c r="S14" s="14">
-        <v>27.536231999999998</v>
-      </c>
-      <c r="T14" s="14">
-        <v>-9.0909089999999999</v>
-      </c>
-      <c r="U14" s="14">
         <v>-20</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -7474,20 +6250,8 @@
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>133</v>
       </c>
@@ -7495,64 +6259,28 @@
         <v>134</v>
       </c>
       <c r="C16" s="14">
-        <v>40.456211000000003</v>
+        <v>15.912481</v>
       </c>
       <c r="D16" s="14">
-        <v>-47.621540000000003</v>
+        <v>22.965823</v>
       </c>
       <c r="E16" s="14">
-        <v>152.03040200000001</v>
+        <v>47.168275000000001</v>
       </c>
       <c r="F16" s="14">
-        <v>-28.399080000000001</v>
+        <v>-24.38035</v>
       </c>
       <c r="G16" s="14">
-        <v>-22.702582</v>
+        <v>14.364833000000001</v>
       </c>
       <c r="H16" s="14">
-        <v>25.039435000000001</v>
+        <v>28.075412</v>
       </c>
       <c r="I16" s="14">
-        <v>-15.082006</v>
-      </c>
-      <c r="J16" s="14">
-        <v>55.524050000000003</v>
-      </c>
-      <c r="K16" s="14">
-        <v>-22.431612000000001</v>
-      </c>
-      <c r="L16" s="14">
-        <v>-2.9220799999999998</v>
-      </c>
-      <c r="M16" s="14">
-        <v>140.56048899999999</v>
-      </c>
-      <c r="N16" s="14">
-        <v>-13.231699000000001</v>
-      </c>
-      <c r="O16" s="14">
-        <v>15.912481</v>
-      </c>
-      <c r="P16" s="14">
-        <v>22.965823</v>
-      </c>
-      <c r="Q16" s="14">
-        <v>47.168275000000001</v>
-      </c>
-      <c r="R16" s="14">
-        <v>-24.38035</v>
-      </c>
-      <c r="S16" s="14">
-        <v>14.364833000000001</v>
-      </c>
-      <c r="T16" s="14">
-        <v>28.075412</v>
-      </c>
-      <c r="U16" s="14">
         <v>15.647665999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>135</v>
       </c>
@@ -7560,64 +6288,28 @@
         <v>136</v>
       </c>
       <c r="C17" s="14">
-        <v>4.9244779999999997</v>
+        <v>1.983568</v>
       </c>
       <c r="D17" s="14">
-        <v>40.188014000000003</v>
+        <v>1.0107010000000001</v>
       </c>
       <c r="E17" s="14">
-        <v>-4.9310890000000001</v>
+        <v>4.4781190000000004</v>
       </c>
       <c r="F17" s="14">
-        <v>23.547713000000002</v>
+        <v>5.4528999999999996</v>
       </c>
       <c r="G17" s="14">
-        <v>18.255438000000002</v>
+        <v>23.573761999999999</v>
       </c>
       <c r="H17" s="14">
-        <v>12.559901999999999</v>
+        <v>12.614248999999999</v>
       </c>
       <c r="I17" s="14">
-        <v>23.336987000000001</v>
-      </c>
-      <c r="J17" s="14">
-        <v>27.495145000000001</v>
-      </c>
-      <c r="K17" s="14">
-        <v>-4.7737550000000004</v>
-      </c>
-      <c r="L17" s="14">
-        <v>14.189204</v>
-      </c>
-      <c r="M17" s="14">
-        <v>64.042726000000002</v>
-      </c>
-      <c r="N17" s="14">
-        <v>25.896415999999999</v>
-      </c>
-      <c r="O17" s="14">
-        <v>1.983568</v>
-      </c>
-      <c r="P17" s="14">
-        <v>1.0107010000000001</v>
-      </c>
-      <c r="Q17" s="14">
-        <v>4.4781190000000004</v>
-      </c>
-      <c r="R17" s="14">
-        <v>5.4528999999999996</v>
-      </c>
-      <c r="S17" s="14">
-        <v>23.573761999999999</v>
-      </c>
-      <c r="T17" s="14">
-        <v>12.614248999999999</v>
-      </c>
-      <c r="U17" s="14">
         <v>11.308838</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>137</v>
       </c>
@@ -7625,64 +6317,28 @@
         <v>138</v>
       </c>
       <c r="C18" s="14">
-        <v>10.402029000000001</v>
+        <v>-3.2343109999999999</v>
       </c>
       <c r="D18" s="14">
-        <v>23.691825999999999</v>
+        <v>-2.2079599999999999</v>
       </c>
       <c r="E18" s="14">
-        <v>7.0268449999999998</v>
+        <v>10.604001999999999</v>
       </c>
       <c r="F18" s="14">
-        <v>0.50832100000000002</v>
+        <v>3.3683969999999999</v>
       </c>
       <c r="G18" s="14">
-        <v>15.725410999999999</v>
+        <v>21.509781</v>
       </c>
       <c r="H18" s="14">
-        <v>-1.7745610000000001</v>
+        <v>27.346826</v>
       </c>
       <c r="I18" s="14">
-        <v>10.339955</v>
-      </c>
-      <c r="J18" s="14">
-        <v>23.453859999999999</v>
-      </c>
-      <c r="K18" s="14">
-        <v>9.1630389999999995</v>
-      </c>
-      <c r="L18" s="14">
-        <v>28.416108000000001</v>
-      </c>
-      <c r="M18" s="14">
-        <v>23.076923000000001</v>
-      </c>
-      <c r="N18" s="14">
-        <v>30.347868999999999</v>
-      </c>
-      <c r="O18" s="14">
-        <v>-3.2343109999999999</v>
-      </c>
-      <c r="P18" s="14">
-        <v>-2.2079599999999999</v>
-      </c>
-      <c r="Q18" s="14">
-        <v>10.604001999999999</v>
-      </c>
-      <c r="R18" s="14">
-        <v>3.3683969999999999</v>
-      </c>
-      <c r="S18" s="14">
-        <v>21.509781</v>
-      </c>
-      <c r="T18" s="14">
-        <v>27.346826</v>
-      </c>
-      <c r="U18" s="14">
         <v>16.237217999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>139</v>
       </c>
@@ -7690,64 +6346,28 @@
         <v>140</v>
       </c>
       <c r="C19" s="14">
-        <v>19.445691</v>
+        <v>-2.434113</v>
       </c>
       <c r="D19" s="14">
-        <v>5.9469919999999998</v>
+        <v>9.3812850000000001</v>
       </c>
       <c r="E19" s="14">
-        <v>7.023199</v>
+        <v>9.3073200000000007</v>
       </c>
       <c r="F19" s="14">
-        <v>0.39171099999999998</v>
+        <v>9.9021109999999997</v>
       </c>
       <c r="G19" s="14">
-        <v>33.273944</v>
+        <v>12.625887000000001</v>
       </c>
       <c r="H19" s="14">
-        <v>-5.2606529999999996</v>
+        <v>11.228210000000001</v>
       </c>
       <c r="I19" s="14">
-        <v>12.839968000000001</v>
-      </c>
-      <c r="J19" s="14">
-        <v>21.030134</v>
-      </c>
-      <c r="K19" s="14">
-        <v>6.5602819999999999</v>
-      </c>
-      <c r="L19" s="14">
-        <v>19.376929000000001</v>
-      </c>
-      <c r="M19" s="14">
-        <v>42.177909999999997</v>
-      </c>
-      <c r="N19" s="14">
-        <v>21.461224000000001</v>
-      </c>
-      <c r="O19" s="14">
-        <v>-2.434113</v>
-      </c>
-      <c r="P19" s="14">
-        <v>9.3812850000000001</v>
-      </c>
-      <c r="Q19" s="14">
-        <v>9.3073200000000007</v>
-      </c>
-      <c r="R19" s="14">
-        <v>9.9021109999999997</v>
-      </c>
-      <c r="S19" s="14">
-        <v>12.625887000000001</v>
-      </c>
-      <c r="T19" s="14">
-        <v>11.228210000000001</v>
-      </c>
-      <c r="U19" s="14">
         <v>20.306494000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>141</v>
       </c>
@@ -7755,64 +6375,28 @@
         <v>142</v>
       </c>
       <c r="C20" s="14">
-        <v>54.458537</v>
+        <v>4.9422470000000001</v>
       </c>
       <c r="D20" s="14">
-        <v>84.051439999999999</v>
+        <v>-16.282245</v>
       </c>
       <c r="E20" s="14">
-        <v>-286.62332300000003</v>
+        <v>-5.0423679999999997</v>
       </c>
       <c r="F20" s="14">
-        <v>-265.00573500000002</v>
+        <v>-13.027932</v>
       </c>
       <c r="G20" s="14">
-        <v>-182.307119</v>
+        <v>11.022124</v>
       </c>
       <c r="H20" s="14">
-        <v>-18.098248000000002</v>
+        <v>34.605494</v>
       </c>
       <c r="I20" s="14">
-        <v>8.1666509999999999</v>
-      </c>
-      <c r="J20" s="14">
-        <v>-30.677368999999999</v>
-      </c>
-      <c r="K20" s="14">
-        <v>-20.258721000000001</v>
-      </c>
-      <c r="L20" s="14">
-        <v>-22.716609999999999</v>
-      </c>
-      <c r="M20" s="14">
-        <v>-39.696401999999999</v>
-      </c>
-      <c r="N20" s="14">
-        <v>-0.82671799999999995</v>
-      </c>
-      <c r="O20" s="14">
-        <v>4.9422470000000001</v>
-      </c>
-      <c r="P20" s="14">
-        <v>-16.282245</v>
-      </c>
-      <c r="Q20" s="14">
-        <v>-5.0423679999999997</v>
-      </c>
-      <c r="R20" s="14">
-        <v>-13.027932</v>
-      </c>
-      <c r="S20" s="14">
-        <v>11.022124</v>
-      </c>
-      <c r="T20" s="14">
-        <v>34.605494</v>
-      </c>
-      <c r="U20" s="14">
         <v>49.036991999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>143</v>
       </c>
@@ -7820,64 +6404,28 @@
         <v>144</v>
       </c>
       <c r="C21" s="14">
-        <v>72.240610000000004</v>
+        <v>22.801438000000001</v>
       </c>
       <c r="D21" s="14">
-        <v>-151.89872199999999</v>
+        <v>28.965188999999999</v>
       </c>
       <c r="E21" s="14">
-        <v>-55.389749999999999</v>
+        <v>-4.1011170000000003</v>
       </c>
       <c r="F21" s="14">
-        <v>-21.002497999999999</v>
+        <v>29.998631</v>
       </c>
       <c r="G21" s="14">
-        <v>-3.7831800000000002</v>
+        <v>-73.814402999999999</v>
       </c>
       <c r="H21" s="14">
-        <v>41.244883000000002</v>
+        <v>-93.470782</v>
       </c>
       <c r="I21" s="14">
-        <v>-6.2268720000000002</v>
-      </c>
-      <c r="J21" s="14">
-        <v>-96.705551</v>
-      </c>
-      <c r="K21" s="14">
-        <v>-7.6073519999999997</v>
-      </c>
-      <c r="L21" s="14">
-        <v>-90.881974999999997</v>
-      </c>
-      <c r="M21" s="14">
-        <v>-18.872412000000001</v>
-      </c>
-      <c r="N21" s="14">
-        <v>-67.580280999999999</v>
-      </c>
-      <c r="O21" s="14">
-        <v>22.801438000000001</v>
-      </c>
-      <c r="P21" s="14">
-        <v>28.965188999999999</v>
-      </c>
-      <c r="Q21" s="14">
-        <v>-4.1011170000000003</v>
-      </c>
-      <c r="R21" s="14">
-        <v>29.998631</v>
-      </c>
-      <c r="S21" s="14">
-        <v>-73.814402999999999</v>
-      </c>
-      <c r="T21" s="14">
-        <v>-93.470782</v>
-      </c>
-      <c r="U21" s="14">
         <v>-34.793590999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>145</v>
       </c>
@@ -7899,50 +6447,14 @@
       <c r="G22" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="H22" s="14">
-        <v>4.8339059999999998</v>
-      </c>
-      <c r="I22" s="14">
-        <v>-21.04458</v>
-      </c>
-      <c r="J22" s="14">
-        <v>9.6595630000000003</v>
-      </c>
-      <c r="K22" s="14">
-        <v>18.273599000000001</v>
-      </c>
-      <c r="L22" s="14">
-        <v>70.721297000000007</v>
-      </c>
-      <c r="M22" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="N22" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="O22" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="P22" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q22" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="R22" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="S22" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="T22" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="U22" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H22" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>147</v>
       </c>
@@ -7950,194 +6462,86 @@
         <v>148</v>
       </c>
       <c r="C23" s="14">
-        <v>-12.823664000000001</v>
+        <v>-0.26985500000000001</v>
       </c>
       <c r="D23" s="14">
-        <v>4.0485959999999999</v>
+        <v>7.4935530000000004</v>
       </c>
       <c r="E23" s="14">
-        <v>15.163511</v>
+        <v>6.5142199999999999</v>
       </c>
       <c r="F23" s="14">
-        <v>37.992657999999999</v>
+        <v>6.7057149999999996</v>
       </c>
       <c r="G23" s="14">
-        <v>56.097968000000002</v>
+        <v>8.6784739999999996</v>
       </c>
       <c r="H23" s="14">
-        <v>15.612669</v>
+        <v>-2.9284849999999998</v>
       </c>
       <c r="I23" s="14">
-        <v>6.9097189999999999</v>
-      </c>
-      <c r="J23" s="14">
-        <v>29.787410000000001</v>
-      </c>
-      <c r="K23" s="14">
-        <v>4.5365099999999998</v>
-      </c>
-      <c r="L23" s="14">
-        <v>17.585964000000001</v>
-      </c>
-      <c r="M23" s="14">
-        <v>54.315770999999998</v>
-      </c>
-      <c r="N23" s="14">
-        <v>13.295868</v>
-      </c>
-      <c r="O23" s="14">
-        <v>-0.26985500000000001</v>
-      </c>
-      <c r="P23" s="14">
-        <v>7.4935530000000004</v>
-      </c>
-      <c r="Q23" s="14">
-        <v>6.5142199999999999</v>
-      </c>
-      <c r="R23" s="14">
-        <v>6.7057149999999996</v>
-      </c>
-      <c r="S23" s="14">
-        <v>8.6784739999999996</v>
-      </c>
-      <c r="T23" s="14">
-        <v>-2.9284849999999998</v>
-      </c>
-      <c r="U23" s="14">
         <v>-2.4038729999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>149</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C24" s="14">
-        <v>-41.700859000000001</v>
-      </c>
-      <c r="D24" s="14">
-        <v>-78.977326000000005</v>
-      </c>
-      <c r="E24" s="14">
-        <v>482.70745499999998</v>
-      </c>
-      <c r="F24" s="14">
-        <v>0.43964500000000001</v>
-      </c>
-      <c r="G24" s="14">
-        <v>113.773383</v>
-      </c>
-      <c r="H24" s="14">
-        <v>-98.871488999999997</v>
-      </c>
-      <c r="I24" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="J24" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="K24" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="L24" s="14">
-        <v>103.583054</v>
-      </c>
-      <c r="M24" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="N24" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="O24" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="P24" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q24" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="R24" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="S24" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="T24" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="U24" s="14">
+      <c r="C24" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I24" s="14">
         <v>406.38196499999998</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>151</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="C25" s="14">
-        <v>-2.3547829999999998</v>
-      </c>
-      <c r="D25" s="14">
-        <v>30.520409000000001</v>
-      </c>
-      <c r="E25" s="14">
-        <v>-2.4327260000000002</v>
-      </c>
-      <c r="F25" s="14">
-        <v>-32.001815999999998</v>
-      </c>
-      <c r="G25" s="14">
-        <v>-4.3585979999999998</v>
-      </c>
-      <c r="H25" s="14">
-        <v>-98.990519000000006</v>
-      </c>
-      <c r="I25" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="J25" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="K25" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="L25" s="14">
-        <v>103.583054</v>
-      </c>
-      <c r="M25" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="N25" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="O25" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="P25" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q25" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="R25" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="S25" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="T25" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="U25" s="14">
+      <c r="C25" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I25" s="14">
         <v>464.42228699999998</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>153</v>
       </c>
@@ -8145,64 +6549,28 @@
         <v>154</v>
       </c>
       <c r="C26" s="14">
-        <v>51.700547</v>
+        <v>11.554368999999999</v>
       </c>
       <c r="D26" s="14">
-        <v>-9.7850429999999999</v>
+        <v>14.458938</v>
       </c>
       <c r="E26" s="14">
-        <v>13.745131000000001</v>
+        <v>14.597452000000001</v>
       </c>
       <c r="F26" s="14">
-        <v>11.756962</v>
+        <v>13.797487</v>
       </c>
       <c r="G26" s="14">
-        <v>43.459510000000002</v>
+        <v>11.883965999999999</v>
       </c>
       <c r="H26" s="14">
-        <v>14.304173</v>
+        <v>8.5016339999999992</v>
       </c>
       <c r="I26" s="14">
-        <v>11.163498000000001</v>
-      </c>
-      <c r="J26" s="14">
-        <v>7.8435569999999997</v>
-      </c>
-      <c r="K26" s="14">
-        <v>10.048852999999999</v>
-      </c>
-      <c r="L26" s="14">
-        <v>10.294428999999999</v>
-      </c>
-      <c r="M26" s="14">
-        <v>27.172104000000001</v>
-      </c>
-      <c r="N26" s="14">
-        <v>11.561908000000001</v>
-      </c>
-      <c r="O26" s="14">
-        <v>11.554368999999999</v>
-      </c>
-      <c r="P26" s="14">
-        <v>14.458938</v>
-      </c>
-      <c r="Q26" s="14">
-        <v>14.597452000000001</v>
-      </c>
-      <c r="R26" s="14">
-        <v>13.797487</v>
-      </c>
-      <c r="S26" s="14">
-        <v>11.883965999999999</v>
-      </c>
-      <c r="T26" s="14">
-        <v>8.5016339999999992</v>
-      </c>
-      <c r="U26" s="14">
         <v>3.429513</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>155</v>
       </c>
@@ -8210,64 +6578,28 @@
         <v>156</v>
       </c>
       <c r="C27" s="14">
-        <v>27.790209000000001</v>
+        <v>-5.5253870000000003</v>
       </c>
       <c r="D27" s="14">
-        <v>3.8376950000000001</v>
+        <v>14.458938</v>
       </c>
       <c r="E27" s="14">
-        <v>6.8721519999999998</v>
+        <v>14.597452000000001</v>
       </c>
       <c r="F27" s="14">
-        <v>-5.2148729999999999</v>
+        <v>13.797487</v>
       </c>
       <c r="G27" s="14">
-        <v>30.154565000000002</v>
+        <v>11.883965999999999</v>
       </c>
       <c r="H27" s="14">
-        <v>-8.8600010000000005</v>
+        <v>16.800303</v>
       </c>
       <c r="I27" s="14">
-        <v>10.911754999999999</v>
-      </c>
-      <c r="J27" s="14">
-        <v>7.8435569999999997</v>
-      </c>
-      <c r="K27" s="14">
-        <v>10.108776000000001</v>
-      </c>
-      <c r="L27" s="14">
-        <v>10.345198</v>
-      </c>
-      <c r="M27" s="14">
-        <v>27.044415999999998</v>
-      </c>
-      <c r="N27" s="14">
-        <v>31.730822</v>
-      </c>
-      <c r="O27" s="14">
-        <v>-5.5253870000000003</v>
-      </c>
-      <c r="P27" s="14">
-        <v>14.458938</v>
-      </c>
-      <c r="Q27" s="14">
-        <v>14.597452000000001</v>
-      </c>
-      <c r="R27" s="14">
-        <v>13.797487</v>
-      </c>
-      <c r="S27" s="14">
-        <v>11.883965999999999</v>
-      </c>
-      <c r="T27" s="14">
-        <v>16.800303</v>
-      </c>
-      <c r="U27" s="14">
         <v>36.183079999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>157</v>
       </c>
@@ -8275,64 +6607,28 @@
         <v>158</v>
       </c>
       <c r="C28" s="14">
-        <v>17.470677999999999</v>
+        <v>11.554368999999999</v>
       </c>
       <c r="D28" s="14">
-        <v>-9.7850429999999999</v>
+        <v>14.458938</v>
       </c>
       <c r="E28" s="14">
-        <v>13.745131000000001</v>
+        <v>14.597452000000001</v>
       </c>
       <c r="F28" s="14">
-        <v>11.756962</v>
+        <v>13.797487</v>
       </c>
       <c r="G28" s="14">
-        <v>8.70059</v>
+        <v>11.883965999999999</v>
       </c>
       <c r="H28" s="14">
-        <v>14.304173</v>
+        <v>7.7307220000000001</v>
       </c>
       <c r="I28" s="14">
-        <v>11.163498000000001</v>
-      </c>
-      <c r="J28" s="14">
-        <v>7.8435569999999997</v>
-      </c>
-      <c r="K28" s="14">
-        <v>10.048852999999999</v>
-      </c>
-      <c r="L28" s="14">
-        <v>10.294428999999999</v>
-      </c>
-      <c r="M28" s="14">
-        <v>27.172104000000001</v>
-      </c>
-      <c r="N28" s="14">
-        <v>11.561908000000001</v>
-      </c>
-      <c r="O28" s="14">
-        <v>11.554368999999999</v>
-      </c>
-      <c r="P28" s="14">
-        <v>14.458938</v>
-      </c>
-      <c r="Q28" s="14">
-        <v>14.597452000000001</v>
-      </c>
-      <c r="R28" s="14">
-        <v>13.797487</v>
-      </c>
-      <c r="S28" s="14">
-        <v>11.883965999999999</v>
-      </c>
-      <c r="T28" s="14">
-        <v>7.7307220000000001</v>
-      </c>
-      <c r="U28" s="14">
         <v>3.5520939999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -8342,20 +6638,8 @@
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="12"/>
-      <c r="S29" s="12"/>
-      <c r="T29" s="12"/>
-      <c r="U29" s="12"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>159</v>
       </c>
@@ -8363,64 +6647,28 @@
         <v>160</v>
       </c>
       <c r="C30" s="14">
-        <v>-15.372812</v>
+        <v>-17.366465000000002</v>
       </c>
       <c r="D30" s="14">
-        <v>37.270516000000001</v>
+        <v>35.494686000000002</v>
       </c>
       <c r="E30" s="14">
-        <v>6.676577</v>
+        <v>-2.0965940000000001</v>
       </c>
       <c r="F30" s="14">
-        <v>9.9316980000000008</v>
+        <v>14.227009000000001</v>
       </c>
       <c r="G30" s="14">
-        <v>79.760262999999995</v>
+        <v>10.801759000000001</v>
       </c>
       <c r="H30" s="14">
-        <v>-26.716982999999999</v>
+        <v>-20.519621000000001</v>
       </c>
       <c r="I30" s="14">
-        <v>18.850660999999999</v>
-      </c>
-      <c r="J30" s="14">
-        <v>51.941361999999998</v>
-      </c>
-      <c r="K30" s="14">
-        <v>-23.075416000000001</v>
-      </c>
-      <c r="L30" s="14">
-        <v>78.153959999999998</v>
-      </c>
-      <c r="M30" s="14">
-        <v>32.703440999999998</v>
-      </c>
-      <c r="N30" s="14">
-        <v>-0.95840000000000003</v>
-      </c>
-      <c r="O30" s="14">
-        <v>-17.366465000000002</v>
-      </c>
-      <c r="P30" s="14">
-        <v>35.494686000000002</v>
-      </c>
-      <c r="Q30" s="14">
-        <v>-2.0965940000000001</v>
-      </c>
-      <c r="R30" s="14">
-        <v>14.227009000000001</v>
-      </c>
-      <c r="S30" s="14">
-        <v>10.801759000000001</v>
-      </c>
-      <c r="T30" s="14">
-        <v>-20.519621000000001</v>
-      </c>
-      <c r="U30" s="14">
         <v>-22.672190000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>76</v>
       </c>
@@ -8428,64 +6676,28 @@
         <v>161</v>
       </c>
       <c r="C31" s="14">
-        <v>-55.122753000000003</v>
+        <v>-80.646780000000007</v>
       </c>
       <c r="D31" s="14">
-        <v>109.722802</v>
+        <v>26.523042</v>
       </c>
       <c r="E31" s="14">
-        <v>-48.682865999999997</v>
+        <v>164.72031100000001</v>
       </c>
       <c r="F31" s="14">
-        <v>2.0207449999999998</v>
+        <v>-36.874822999999999</v>
       </c>
       <c r="G31" s="14">
-        <v>110.56979200000001</v>
+        <v>162.599345</v>
       </c>
       <c r="H31" s="14">
-        <v>-76.974196000000006</v>
+        <v>32.598621000000001</v>
       </c>
       <c r="I31" s="14">
-        <v>271.147516</v>
-      </c>
-      <c r="J31" s="14">
-        <v>92.425470000000004</v>
-      </c>
-      <c r="K31" s="14">
-        <v>-32.134481999999998</v>
-      </c>
-      <c r="L31" s="14">
-        <v>130.947609</v>
-      </c>
-      <c r="M31" s="14">
-        <v>-14.036859</v>
-      </c>
-      <c r="N31" s="14">
-        <v>105.373414</v>
-      </c>
-      <c r="O31" s="14">
-        <v>-80.646780000000007</v>
-      </c>
-      <c r="P31" s="14">
-        <v>26.523042</v>
-      </c>
-      <c r="Q31" s="14">
-        <v>164.72031100000001</v>
-      </c>
-      <c r="R31" s="14">
-        <v>-36.874822999999999</v>
-      </c>
-      <c r="S31" s="14">
-        <v>162.599345</v>
-      </c>
-      <c r="T31" s="14">
-        <v>32.598621000000001</v>
-      </c>
-      <c r="U31" s="14">
         <v>1.762311</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>162</v>
       </c>
@@ -8493,64 +6705,28 @@
         <v>163</v>
       </c>
       <c r="C32" s="14">
-        <v>362.02337799999998</v>
+        <v>20.620092</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E32" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>54</v>
+      <c r="E32" s="14">
+        <v>-94.766845000000004</v>
+      </c>
+      <c r="F32" s="14">
+        <v>1018.641562</v>
       </c>
       <c r="G32" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="H32" s="14" t="s">
-        <v>54</v>
+      <c r="H32" s="14">
+        <v>-67.995345999999998</v>
       </c>
       <c r="I32" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="J32" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="K32" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="L32" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="M32" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="N32" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="O32" s="14">
-        <v>20.620092</v>
-      </c>
-      <c r="P32" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q32" s="14">
-        <v>-94.766845000000004</v>
-      </c>
-      <c r="R32" s="14">
-        <v>1018.641562</v>
-      </c>
-      <c r="S32" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="T32" s="14">
-        <v>-67.995345999999998</v>
-      </c>
-      <c r="U32" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>78</v>
       </c>
@@ -8560,62 +6736,26 @@
       <c r="C33" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>54</v>
+      <c r="D33" s="14">
+        <v>40.199187000000002</v>
+      </c>
+      <c r="E33" s="14">
+        <v>-81.038169999999994</v>
       </c>
       <c r="F33" s="14">
-        <v>29.090416999999999</v>
-      </c>
-      <c r="G33" s="14">
-        <v>20.792155999999999</v>
+        <v>351.83228500000001</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>54</v>
       </c>
       <c r="H33" s="14">
-        <v>140.965564</v>
+        <v>-418.79452800000001</v>
       </c>
       <c r="I33" s="14">
-        <v>-61.587311</v>
-      </c>
-      <c r="J33" s="14">
-        <v>-72.769908000000001</v>
-      </c>
-      <c r="K33" s="14">
-        <v>174.12962899999999</v>
-      </c>
-      <c r="L33" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="M33" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="N33" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="O33" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="P33" s="14">
-        <v>40.199187000000002</v>
-      </c>
-      <c r="Q33" s="14">
-        <v>-81.038169999999994</v>
-      </c>
-      <c r="R33" s="14">
-        <v>351.83228500000001</v>
-      </c>
-      <c r="S33" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="T33" s="14">
-        <v>-418.79452800000001</v>
-      </c>
-      <c r="U33" s="14">
         <v>-28.978793</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>165</v>
       </c>
@@ -8623,64 +6763,28 @@
         <v>166</v>
       </c>
       <c r="C34" s="14">
-        <v>-13.456446</v>
+        <v>-17.179501999999999</v>
       </c>
       <c r="D34" s="14">
-        <v>-15.864680999999999</v>
+        <v>34.451222000000001</v>
       </c>
       <c r="E34" s="14">
-        <v>82.789551000000003</v>
+        <v>-2.1040260000000002</v>
       </c>
       <c r="F34" s="14">
-        <v>2.7974809999999999</v>
+        <v>14.226564</v>
       </c>
       <c r="G34" s="14">
-        <v>72.978852000000003</v>
+        <v>10.805118</v>
       </c>
       <c r="H34" s="14">
-        <v>-28.067041</v>
+        <v>-19.926573000000001</v>
       </c>
       <c r="I34" s="14">
-        <v>17.094415000000001</v>
-      </c>
-      <c r="J34" s="14">
-        <v>51.845717999999998</v>
-      </c>
-      <c r="K34" s="14">
-        <v>-22.739115999999999</v>
-      </c>
-      <c r="L34" s="14">
-        <v>77.623834000000002</v>
-      </c>
-      <c r="M34" s="14">
-        <v>32.571050999999997</v>
-      </c>
-      <c r="N34" s="14">
-        <v>-0.46109499999999998</v>
-      </c>
-      <c r="O34" s="14">
-        <v>-17.179501999999999</v>
-      </c>
-      <c r="P34" s="14">
-        <v>34.451222000000001</v>
-      </c>
-      <c r="Q34" s="14">
-        <v>-2.1040260000000002</v>
-      </c>
-      <c r="R34" s="14">
-        <v>14.226564</v>
-      </c>
-      <c r="S34" s="14">
-        <v>10.805118</v>
-      </c>
-      <c r="T34" s="14">
-        <v>-19.926573000000001</v>
-      </c>
-      <c r="U34" s="14">
         <v>-20.113531999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>167</v>
       </c>
@@ -8690,62 +6794,26 @@
       <c r="C35" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D35" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>54</v>
+      <c r="D35" s="14">
+        <v>38.559452</v>
+      </c>
+      <c r="E35" s="14">
+        <v>-81.039837000000006</v>
       </c>
       <c r="F35" s="14">
-        <v>4.0403529999999996</v>
-      </c>
-      <c r="G35" s="14">
-        <v>13.996389000000001</v>
+        <v>351.81887699999999</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>54</v>
       </c>
       <c r="H35" s="14">
-        <v>113.68101299999999</v>
+        <v>-414.57853799999998</v>
       </c>
       <c r="I35" s="14">
-        <v>-62.250312000000001</v>
-      </c>
-      <c r="J35" s="14">
-        <v>-72.759473999999997</v>
-      </c>
-      <c r="K35" s="14">
-        <v>181.05308299999999</v>
-      </c>
-      <c r="L35" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="M35" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="N35" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="O35" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="P35" s="14">
-        <v>38.559452</v>
-      </c>
-      <c r="Q35" s="14">
-        <v>-81.039837000000006</v>
-      </c>
-      <c r="R35" s="14">
-        <v>351.81887699999999</v>
-      </c>
-      <c r="S35" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="T35" s="14">
-        <v>-414.57853799999998</v>
-      </c>
-      <c r="U35" s="14">
         <v>-26.517966000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
@@ -8755,20 +6823,8 @@
       <c r="G36" s="12"/>
       <c r="H36" s="12"/>
       <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="12"/>
-      <c r="R36" s="12"/>
-      <c r="S36" s="12"/>
-      <c r="T36" s="12"/>
-      <c r="U36" s="12"/>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>169</v>
       </c>
@@ -8780,345 +6836,153 @@
       <c r="G37" s="18"/>
       <c r="H37" s="18"/>
       <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="18"/>
-      <c r="O37" s="18"/>
-      <c r="P37" s="18"/>
-      <c r="Q37" s="18"/>
-      <c r="R37" s="18"/>
-      <c r="S37" s="18"/>
-      <c r="T37" s="18"/>
-      <c r="U37" s="18"/>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C38" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F38" s="14" t="s">
-        <v>54</v>
+      <c r="C38" s="14">
+        <v>12.515394000000001</v>
+      </c>
+      <c r="D38" s="14">
+        <v>10.155896</v>
+      </c>
+      <c r="E38" s="14">
+        <v>8.7472130000000003</v>
+      </c>
+      <c r="F38" s="14">
+        <v>2.438253</v>
       </c>
       <c r="G38" s="14">
-        <v>16.983723000000001</v>
+        <v>0.46960200000000002</v>
       </c>
       <c r="H38" s="14">
-        <v>14.757099</v>
+        <v>6.162801</v>
       </c>
       <c r="I38" s="14">
-        <v>14.591136000000001</v>
-      </c>
-      <c r="J38" s="14">
-        <v>17.522162999999999</v>
-      </c>
-      <c r="K38" s="14">
-        <v>17.282198999999999</v>
-      </c>
-      <c r="L38" s="14">
-        <v>14.665279999999999</v>
-      </c>
-      <c r="M38" s="14">
-        <v>19.174557</v>
-      </c>
-      <c r="N38" s="14">
-        <v>20.199252999999999</v>
-      </c>
-      <c r="O38" s="14">
-        <v>12.515394000000001</v>
-      </c>
-      <c r="P38" s="14">
-        <v>10.155896</v>
-      </c>
-      <c r="Q38" s="14">
-        <v>8.7472130000000003</v>
-      </c>
-      <c r="R38" s="14">
-        <v>2.438253</v>
-      </c>
-      <c r="S38" s="14">
-        <v>0.46960200000000002</v>
-      </c>
-      <c r="T38" s="14">
-        <v>6.162801</v>
-      </c>
-      <c r="U38" s="14">
         <v>5.7866220000000004</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C39" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F39" s="14" t="s">
-        <v>54</v>
+      <c r="C39" s="14">
+        <v>19.636205</v>
+      </c>
+      <c r="D39" s="14">
+        <v>59.570942000000002</v>
+      </c>
+      <c r="E39" s="14">
+        <v>20.088491999999999</v>
+      </c>
+      <c r="F39" s="14">
+        <v>10.546929</v>
       </c>
       <c r="G39" s="14">
-        <v>22.514232</v>
+        <v>9.9806100000000004</v>
       </c>
       <c r="H39" s="14">
-        <v>13.588615000000001</v>
+        <v>7.3105349999999998</v>
       </c>
       <c r="I39" s="14">
-        <v>9.2877670000000006</v>
-      </c>
-      <c r="J39" s="14">
-        <v>14.842302</v>
-      </c>
-      <c r="K39" s="14">
-        <v>-14.502065</v>
-      </c>
-      <c r="L39" s="14">
-        <v>10.729956</v>
-      </c>
-      <c r="M39" s="14">
-        <v>18.175174999999999</v>
-      </c>
-      <c r="N39" s="14">
-        <v>18.585381999999999</v>
-      </c>
-      <c r="O39" s="14">
-        <v>19.636205</v>
-      </c>
-      <c r="P39" s="14">
-        <v>59.570942000000002</v>
-      </c>
-      <c r="Q39" s="14">
-        <v>20.088491999999999</v>
-      </c>
-      <c r="R39" s="14">
-        <v>10.546929</v>
-      </c>
-      <c r="S39" s="14">
-        <v>9.9806100000000004</v>
-      </c>
-      <c r="T39" s="14">
-        <v>7.3105349999999998</v>
-      </c>
-      <c r="U39" s="14">
         <v>2.5233449999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C40" s="14" t="s">
-        <v>54</v>
+      <c r="C40" s="14">
+        <v>15.953158999999999</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E40" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F40" s="14" t="s">
-        <v>54</v>
+      <c r="E40" s="14">
+        <v>20.754076999999999</v>
+      </c>
+      <c r="F40" s="14">
+        <v>12.953915</v>
       </c>
       <c r="G40" s="14">
-        <v>22.312583</v>
+        <v>12.735265</v>
       </c>
       <c r="H40" s="14">
-        <v>11.885983</v>
+        <v>8.5747750000000007</v>
       </c>
       <c r="I40" s="14">
-        <v>6.5238659999999999</v>
-      </c>
-      <c r="J40" s="14">
-        <v>13.867012000000001</v>
-      </c>
-      <c r="K40" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="L40" s="14">
-        <v>8.0304059999999993</v>
-      </c>
-      <c r="M40" s="14">
-        <v>14.153166000000001</v>
-      </c>
-      <c r="N40" s="14">
-        <v>14.65879</v>
-      </c>
-      <c r="O40" s="14">
-        <v>15.953158999999999</v>
-      </c>
-      <c r="P40" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q40" s="14">
-        <v>20.754076999999999</v>
-      </c>
-      <c r="R40" s="14">
-        <v>12.953915</v>
-      </c>
-      <c r="S40" s="14">
-        <v>12.735265</v>
-      </c>
-      <c r="T40" s="14">
-        <v>8.5747750000000007</v>
-      </c>
-      <c r="U40" s="14">
         <v>-1.423044</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>123</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C41" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F41" s="14" t="s">
-        <v>54</v>
+      <c r="C41" s="14">
+        <v>15.995217999999999</v>
+      </c>
+      <c r="D41" s="14">
+        <v>20.804893</v>
+      </c>
+      <c r="E41" s="14">
+        <v>22.065532999999999</v>
+      </c>
+      <c r="F41" s="14">
+        <v>15.138667</v>
       </c>
       <c r="G41" s="14">
-        <v>22.844735</v>
+        <v>13.876934</v>
       </c>
       <c r="H41" s="14">
-        <v>14.233323</v>
-      </c>
-      <c r="I41" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="J41" s="14">
-        <v>9.7801960000000001</v>
-      </c>
-      <c r="K41" s="14">
-        <v>10.952007999999999</v>
-      </c>
-      <c r="L41" s="14">
-        <v>9.7199399999999994</v>
-      </c>
-      <c r="M41" s="14">
-        <v>14.267382</v>
-      </c>
-      <c r="N41" s="14">
-        <v>14.777481</v>
-      </c>
-      <c r="O41" s="14">
-        <v>15.995217999999999</v>
-      </c>
-      <c r="P41" s="14">
-        <v>20.804893</v>
-      </c>
-      <c r="Q41" s="14">
-        <v>22.065532999999999</v>
-      </c>
-      <c r="R41" s="14">
-        <v>15.138667</v>
-      </c>
-      <c r="S41" s="14">
-        <v>13.876934</v>
-      </c>
-      <c r="T41" s="14">
         <v>9.7591739999999998</v>
       </c>
-      <c r="U41" s="14">
+      <c r="I41" s="14">
         <v>-4.1966650000000003</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>131</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C42" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F42" s="14" t="s">
-        <v>54</v>
+      <c r="C42" s="14">
+        <v>20.112444</v>
+      </c>
+      <c r="D42" s="14">
+        <v>22.67032</v>
+      </c>
+      <c r="E42" s="14">
+        <v>18.747174999999999</v>
+      </c>
+      <c r="F42" s="14">
+        <v>22.356681999999999</v>
       </c>
       <c r="G42" s="14">
-        <v>8.6692099999999996</v>
+        <v>19.573801</v>
       </c>
       <c r="H42" s="14">
-        <v>30.525245000000002</v>
+        <v>17.316068000000001</v>
       </c>
       <c r="I42" s="14">
-        <v>20.358359</v>
-      </c>
-      <c r="J42" s="14">
-        <v>-3.9305599999999998</v>
-      </c>
-      <c r="K42" s="14">
-        <v>-0.36280000000000001</v>
-      </c>
-      <c r="L42" s="14">
-        <v>1.5511280000000001</v>
-      </c>
-      <c r="M42" s="14">
-        <v>4.6974549999999997</v>
-      </c>
-      <c r="N42" s="14">
-        <v>12.474610999999999</v>
-      </c>
-      <c r="O42" s="14">
-        <v>20.112444</v>
-      </c>
-      <c r="P42" s="14">
-        <v>22.67032</v>
-      </c>
-      <c r="Q42" s="14">
-        <v>18.747174999999999</v>
-      </c>
-      <c r="R42" s="14">
-        <v>22.356681999999999</v>
-      </c>
-      <c r="S42" s="14">
-        <v>19.573801</v>
-      </c>
-      <c r="T42" s="14">
-        <v>17.316068000000001</v>
-      </c>
-      <c r="U42" s="14">
         <v>5.9223840000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -9128,280 +6992,124 @@
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="12"/>
-      <c r="O43" s="12"/>
-      <c r="P43" s="12"/>
-      <c r="Q43" s="12"/>
-      <c r="R43" s="12"/>
-      <c r="S43" s="12"/>
-      <c r="T43" s="12"/>
-      <c r="U43" s="12"/>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>133</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="C44" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F44" s="14" t="s">
-        <v>54</v>
+      <c r="C44" s="14">
+        <v>12.746784999999999</v>
+      </c>
+      <c r="D44" s="14">
+        <v>23.630064999999998</v>
+      </c>
+      <c r="E44" s="14">
+        <v>34.357787000000002</v>
+      </c>
+      <c r="F44" s="14">
+        <v>6.596984</v>
       </c>
       <c r="G44" s="14">
-        <v>0.51851000000000003</v>
+        <v>12.65</v>
       </c>
       <c r="H44" s="14">
-        <v>-1.7919130000000001</v>
+        <v>14.920712</v>
       </c>
       <c r="I44" s="14">
-        <v>8.1724460000000008</v>
-      </c>
-      <c r="J44" s="14">
-        <v>-1.7832460000000001</v>
-      </c>
-      <c r="K44" s="14">
-        <v>-0.1981</v>
-      </c>
-      <c r="L44" s="14">
-        <v>4.4551610000000004</v>
-      </c>
-      <c r="M44" s="14">
-        <v>19.059858999999999</v>
-      </c>
-      <c r="N44" s="14">
-        <v>19.574242000000002</v>
-      </c>
-      <c r="O44" s="14">
-        <v>12.746784999999999</v>
-      </c>
-      <c r="P44" s="14">
-        <v>23.630064999999998</v>
-      </c>
-      <c r="Q44" s="14">
-        <v>34.357787000000002</v>
-      </c>
-      <c r="R44" s="14">
-        <v>6.596984</v>
-      </c>
-      <c r="S44" s="14">
-        <v>12.65</v>
-      </c>
-      <c r="T44" s="14">
-        <v>14.920712</v>
-      </c>
-      <c r="U44" s="14">
         <v>13.519062999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="C45" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F45" s="14" t="s">
-        <v>54</v>
+      <c r="C45" s="14">
+        <v>18.025663000000002</v>
+      </c>
+      <c r="D45" s="14">
+        <v>19.425920000000001</v>
+      </c>
+      <c r="E45" s="14">
+        <v>17.321783</v>
+      </c>
+      <c r="F45" s="14">
+        <v>7.3986850000000004</v>
       </c>
       <c r="G45" s="14">
-        <v>15.360309000000001</v>
+        <v>6.9994500000000004</v>
       </c>
       <c r="H45" s="14">
-        <v>16.992436999999999</v>
+        <v>9.1425699999999992</v>
       </c>
       <c r="I45" s="14">
-        <v>14.033979</v>
-      </c>
-      <c r="J45" s="14">
-        <v>20.927564</v>
-      </c>
-      <c r="K45" s="14">
-        <v>14.79149</v>
-      </c>
-      <c r="L45" s="14">
-        <v>13.990978</v>
-      </c>
-      <c r="M45" s="14">
-        <v>22.909410000000001</v>
-      </c>
-      <c r="N45" s="14">
-        <v>23.415338999999999</v>
-      </c>
-      <c r="O45" s="14">
-        <v>18.025663000000002</v>
-      </c>
-      <c r="P45" s="14">
-        <v>19.425920000000001</v>
-      </c>
-      <c r="Q45" s="14">
-        <v>17.321783</v>
-      </c>
-      <c r="R45" s="14">
-        <v>7.3986850000000004</v>
-      </c>
-      <c r="S45" s="14">
-        <v>6.9994500000000004</v>
-      </c>
-      <c r="T45" s="14">
-        <v>9.1425699999999992</v>
-      </c>
-      <c r="U45" s="14">
         <v>11.282437</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>137</v>
       </c>
       <c r="B46" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="C46" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E46" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F46" s="14" t="s">
-        <v>54</v>
+      <c r="C46" s="14">
+        <v>16.825975</v>
+      </c>
+      <c r="D46" s="14">
+        <v>14.283885</v>
+      </c>
+      <c r="E46" s="14">
+        <v>10.921379</v>
+      </c>
+      <c r="F46" s="14">
+        <v>7.1167759999999998</v>
       </c>
       <c r="G46" s="14">
-        <v>11.195779999999999</v>
+        <v>5.6231099999999996</v>
       </c>
       <c r="H46" s="14">
-        <v>8.6269760000000009</v>
+        <v>11.586665</v>
       </c>
       <c r="I46" s="14">
-        <v>6.1734799999999996</v>
-      </c>
-      <c r="J46" s="14">
-        <v>9.2492439999999991</v>
-      </c>
-      <c r="K46" s="14">
-        <v>11.069077</v>
-      </c>
-      <c r="L46" s="14">
-        <v>13.404768000000001</v>
-      </c>
-      <c r="M46" s="14">
-        <v>18.637461999999999</v>
-      </c>
-      <c r="N46" s="14">
-        <v>22.658055000000001</v>
-      </c>
-      <c r="O46" s="14">
-        <v>16.825975</v>
-      </c>
-      <c r="P46" s="14">
-        <v>14.283885</v>
-      </c>
-      <c r="Q46" s="14">
-        <v>10.921379</v>
-      </c>
-      <c r="R46" s="14">
-        <v>7.1167759999999998</v>
-      </c>
-      <c r="S46" s="14">
-        <v>5.6231099999999996</v>
-      </c>
-      <c r="T46" s="14">
-        <v>11.586665</v>
-      </c>
-      <c r="U46" s="14">
         <v>15.510281000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>139</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="C47" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E47" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F47" s="14" t="s">
-        <v>54</v>
+      <c r="C47" s="14">
+        <v>16.470706</v>
+      </c>
+      <c r="D47" s="14">
+        <v>17.080950000000001</v>
+      </c>
+      <c r="E47" s="14">
+        <v>15.035532999999999</v>
+      </c>
+      <c r="F47" s="14">
+        <v>9.2614070000000002</v>
       </c>
       <c r="G47" s="14">
-        <v>12.625318</v>
+        <v>7.6234489999999999</v>
       </c>
       <c r="H47" s="14">
-        <v>7.5246430000000002</v>
+        <v>10.481686</v>
       </c>
       <c r="I47" s="14">
-        <v>8.8887160000000005</v>
-      </c>
-      <c r="J47" s="14">
-        <v>11.600462</v>
-      </c>
-      <c r="K47" s="14">
-        <v>12.939404</v>
-      </c>
-      <c r="L47" s="14">
-        <v>10.479201</v>
-      </c>
-      <c r="M47" s="14">
-        <v>19.823187999999998</v>
-      </c>
-      <c r="N47" s="14">
-        <v>21.600625999999998</v>
-      </c>
-      <c r="O47" s="14">
-        <v>16.470706</v>
-      </c>
-      <c r="P47" s="14">
-        <v>17.080950000000001</v>
-      </c>
-      <c r="Q47" s="14">
-        <v>15.035532999999999</v>
-      </c>
-      <c r="R47" s="14">
-        <v>9.2614070000000002</v>
-      </c>
-      <c r="S47" s="14">
-        <v>7.6234489999999999</v>
-      </c>
-      <c r="T47" s="14">
-        <v>10.481686</v>
-      </c>
-      <c r="U47" s="14">
         <v>12.605473999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>145</v>
       </c>
@@ -9429,109 +7137,37 @@
       <c r="I48" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="J48" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="K48" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="L48" s="14">
-        <v>12.881078</v>
-      </c>
-      <c r="M48" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="N48" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="O48" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="P48" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q48" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="R48" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="S48" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="T48" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="U48" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>147</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C49" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E49" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F49" s="14" t="s">
-        <v>54</v>
+      <c r="C49" s="14">
+        <v>16.470210999999999</v>
+      </c>
+      <c r="D49" s="14">
+        <v>17.121801999999999</v>
+      </c>
+      <c r="E49" s="14">
+        <v>14.828097</v>
+      </c>
+      <c r="F49" s="14">
+        <v>6.660507</v>
       </c>
       <c r="G49" s="14">
-        <v>17.609009</v>
+        <v>5.7765829999999996</v>
       </c>
       <c r="H49" s="14">
-        <v>24.440560000000001</v>
+        <v>5.2065080000000004</v>
       </c>
       <c r="I49" s="14">
-        <v>25.117526000000002</v>
-      </c>
-      <c r="J49" s="14">
-        <v>28.145005000000001</v>
-      </c>
-      <c r="K49" s="14">
-        <v>21.222736999999999</v>
-      </c>
-      <c r="L49" s="14">
-        <v>14.544893999999999</v>
-      </c>
-      <c r="M49" s="14">
-        <v>21.35473</v>
-      </c>
-      <c r="N49" s="14">
-        <v>22.771083000000001</v>
-      </c>
-      <c r="O49" s="14">
-        <v>16.470210999999999</v>
-      </c>
-      <c r="P49" s="14">
-        <v>17.121801999999999</v>
-      </c>
-      <c r="Q49" s="14">
-        <v>14.828097</v>
-      </c>
-      <c r="R49" s="14">
-        <v>6.660507</v>
-      </c>
-      <c r="S49" s="14">
-        <v>5.7765829999999996</v>
-      </c>
-      <c r="T49" s="14">
-        <v>5.2065080000000004</v>
-      </c>
-      <c r="U49" s="14">
         <v>3.1935709999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>149</v>
       </c>
@@ -9541,62 +7177,26 @@
       <c r="C50" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D50" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E50" s="14" t="s">
-        <v>54</v>
+      <c r="D50" s="14">
+        <v>-100</v>
+      </c>
+      <c r="E50" s="14">
+        <v>-100</v>
       </c>
       <c r="F50" s="14" t="s">
         <v>54</v>
       </c>
       <c r="G50" s="14">
-        <v>8.9260859999999997</v>
-      </c>
-      <c r="H50" s="14">
-        <v>-50.511921000000001</v>
-      </c>
-      <c r="I50" s="14">
         <v>-100</v>
       </c>
-      <c r="J50" s="14">
-        <v>-100</v>
-      </c>
-      <c r="K50" s="14">
-        <v>-62.280565000000003</v>
-      </c>
-      <c r="L50" s="14">
-        <v>-62.647233</v>
-      </c>
-      <c r="M50" s="14">
-        <v>-100</v>
-      </c>
-      <c r="N50" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="O50" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="P50" s="14">
-        <v>-100</v>
-      </c>
-      <c r="Q50" s="14">
-        <v>-100</v>
-      </c>
-      <c r="R50" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="S50" s="14">
-        <v>-100</v>
-      </c>
-      <c r="T50" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="U50" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H50" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I50" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>151</v>
       </c>
@@ -9606,257 +7206,113 @@
       <c r="C51" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D51" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>54</v>
+      <c r="D51" s="14">
+        <v>-100</v>
+      </c>
+      <c r="E51" s="14">
+        <v>-100</v>
       </c>
       <c r="F51" s="14" t="s">
         <v>54</v>
       </c>
       <c r="G51" s="14">
-        <v>-4.1581109999999999</v>
-      </c>
-      <c r="H51" s="14">
-        <v>-61.589958000000003</v>
-      </c>
-      <c r="I51" s="14">
         <v>-100</v>
       </c>
-      <c r="J51" s="14">
-        <v>-100</v>
-      </c>
-      <c r="K51" s="14">
-        <v>-68.593312999999995</v>
-      </c>
-      <c r="L51" s="14">
-        <v>-63.470706999999997</v>
-      </c>
-      <c r="M51" s="14">
-        <v>-100</v>
-      </c>
-      <c r="N51" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="O51" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="P51" s="14">
-        <v>-100</v>
-      </c>
-      <c r="Q51" s="14">
-        <v>-100</v>
-      </c>
-      <c r="R51" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="S51" s="14">
-        <v>-100</v>
-      </c>
-      <c r="T51" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="U51" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H51" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I51" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>153</v>
       </c>
       <c r="B52" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C52" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D52" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E52" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F52" s="14" t="s">
-        <v>54</v>
+      <c r="C52" s="14">
+        <v>13.947997000000001</v>
+      </c>
+      <c r="D52" s="14">
+        <v>14.846968</v>
+      </c>
+      <c r="E52" s="14">
+        <v>15.729429</v>
+      </c>
+      <c r="F52" s="14">
+        <v>13.185807</v>
       </c>
       <c r="G52" s="14">
-        <v>20.071652</v>
+        <v>13.251080999999999</v>
       </c>
       <c r="H52" s="14">
-        <v>13.463317</v>
+        <v>12.624349</v>
       </c>
       <c r="I52" s="14">
-        <v>18.302033000000002</v>
-      </c>
-      <c r="J52" s="14">
-        <v>17.048131000000001</v>
-      </c>
-      <c r="K52" s="14">
-        <v>16.688127999999999</v>
-      </c>
-      <c r="L52" s="14">
-        <v>10.71119</v>
-      </c>
-      <c r="M52" s="14">
-        <v>13.098663</v>
-      </c>
-      <c r="N52" s="14">
-        <v>13.179617</v>
-      </c>
-      <c r="O52" s="14">
-        <v>13.947997000000001</v>
-      </c>
-      <c r="P52" s="14">
-        <v>14.846968</v>
-      </c>
-      <c r="Q52" s="14">
-        <v>15.729429</v>
-      </c>
-      <c r="R52" s="14">
-        <v>13.185807</v>
-      </c>
-      <c r="S52" s="14">
-        <v>13.251080999999999</v>
-      </c>
-      <c r="T52" s="14">
-        <v>12.624349</v>
-      </c>
-      <c r="U52" s="14">
         <v>10.36497</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>184</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C53" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D53" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E53" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F53" s="14" t="s">
-        <v>54</v>
+      <c r="C53" s="14">
+        <v>13.947997000000001</v>
+      </c>
+      <c r="D53" s="14">
+        <v>14.834465</v>
+      </c>
+      <c r="E53" s="14">
+        <v>15.70618</v>
+      </c>
+      <c r="F53" s="14">
+        <v>13.185807</v>
       </c>
       <c r="G53" s="14">
-        <v>11.836444999999999</v>
+        <v>9.5489110000000004</v>
       </c>
       <c r="H53" s="14">
-        <v>4.5263159999999996</v>
+        <v>14.296737</v>
       </c>
       <c r="I53" s="14">
-        <v>5.9132150000000001</v>
-      </c>
-      <c r="J53" s="14">
-        <v>6.1050560000000003</v>
-      </c>
-      <c r="K53" s="14">
-        <v>9.3332929999999994</v>
-      </c>
-      <c r="L53" s="14">
-        <v>5.7818690000000004</v>
-      </c>
-      <c r="M53" s="14">
-        <v>13.047392</v>
-      </c>
-      <c r="N53" s="14">
-        <v>17.004484999999999</v>
-      </c>
-      <c r="O53" s="14">
-        <v>13.947997000000001</v>
-      </c>
-      <c r="P53" s="14">
-        <v>14.834465</v>
-      </c>
-      <c r="Q53" s="14">
-        <v>15.70618</v>
-      </c>
-      <c r="R53" s="14">
-        <v>13.185807</v>
-      </c>
-      <c r="S53" s="14">
-        <v>9.5489110000000004</v>
-      </c>
-      <c r="T53" s="14">
-        <v>14.296737</v>
-      </c>
-      <c r="U53" s="14">
         <v>18.339171</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>157</v>
       </c>
       <c r="B54" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="C54" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D54" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E54" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F54" s="14" t="s">
-        <v>54</v>
+      <c r="C54" s="14">
+        <v>13.947997000000001</v>
+      </c>
+      <c r="D54" s="14">
+        <v>14.846968</v>
+      </c>
+      <c r="E54" s="14">
+        <v>15.729429</v>
+      </c>
+      <c r="F54" s="14">
+        <v>13.185807</v>
       </c>
       <c r="G54" s="14">
-        <v>7.9268409999999996</v>
+        <v>13.251080999999999</v>
       </c>
       <c r="H54" s="14">
-        <v>7.3386149999999999</v>
+        <v>12.463851999999999</v>
       </c>
       <c r="I54" s="14">
-        <v>11.916138999999999</v>
-      </c>
-      <c r="J54" s="14">
-        <v>10.729922999999999</v>
-      </c>
-      <c r="K54" s="14">
-        <v>10.389352000000001</v>
-      </c>
-      <c r="L54" s="14">
-        <v>10.71119</v>
-      </c>
-      <c r="M54" s="14">
-        <v>13.098663</v>
-      </c>
-      <c r="N54" s="14">
-        <v>13.179617</v>
-      </c>
-      <c r="O54" s="14">
-        <v>13.947997000000001</v>
-      </c>
-      <c r="P54" s="14">
-        <v>14.846968</v>
-      </c>
-      <c r="Q54" s="14">
-        <v>15.729429</v>
-      </c>
-      <c r="R54" s="14">
-        <v>13.185807</v>
-      </c>
-      <c r="S54" s="14">
-        <v>13.251080999999999</v>
-      </c>
-      <c r="T54" s="14">
-        <v>12.463851999999999</v>
-      </c>
-      <c r="U54" s="14">
         <v>10.233802000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="10"/>
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
@@ -9866,85 +7322,37 @@
       <c r="G55" s="12"/>
       <c r="H55" s="12"/>
       <c r="I55" s="12"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12"/>
-      <c r="L55" s="12"/>
-      <c r="M55" s="12"/>
-      <c r="N55" s="12"/>
-      <c r="O55" s="12"/>
-      <c r="P55" s="12"/>
-      <c r="Q55" s="12"/>
-      <c r="R55" s="12"/>
-      <c r="S55" s="12"/>
-      <c r="T55" s="12"/>
-      <c r="U55" s="12"/>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>159</v>
       </c>
       <c r="B56" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="C56" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D56" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E56" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F56" s="14" t="s">
-        <v>54</v>
+      <c r="C56" s="14">
+        <v>8.2787819999999996</v>
+      </c>
+      <c r="D56" s="14">
+        <v>21.259222999999999</v>
+      </c>
+      <c r="E56" s="14">
+        <v>7.5759639999999999</v>
+      </c>
+      <c r="F56" s="14">
+        <v>4.3980940000000004</v>
       </c>
       <c r="G56" s="14">
-        <v>19.617460000000001</v>
+        <v>6.7673269999999999</v>
       </c>
       <c r="H56" s="14">
-        <v>16.223316000000001</v>
+        <v>5.9397859999999998</v>
       </c>
       <c r="I56" s="14">
-        <v>12.921887999999999</v>
-      </c>
-      <c r="J56" s="14">
-        <v>21.199134000000001</v>
-      </c>
-      <c r="K56" s="14">
-        <v>12.846465999999999</v>
-      </c>
-      <c r="L56" s="14">
-        <v>12.644066</v>
-      </c>
-      <c r="M56" s="14">
-        <v>26.848136</v>
-      </c>
-      <c r="N56" s="14">
-        <v>22.305869000000001</v>
-      </c>
-      <c r="O56" s="14">
-        <v>8.2787819999999996</v>
-      </c>
-      <c r="P56" s="14">
-        <v>21.259222999999999</v>
-      </c>
-      <c r="Q56" s="14">
-        <v>7.5759639999999999</v>
-      </c>
-      <c r="R56" s="14">
-        <v>4.3980940000000004</v>
-      </c>
-      <c r="S56" s="14">
-        <v>6.7673269999999999</v>
-      </c>
-      <c r="T56" s="14">
-        <v>5.9397859999999998</v>
-      </c>
-      <c r="U56" s="14">
         <v>-5.3017880000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>78</v>
       </c>
@@ -9960,121 +7368,49 @@
       <c r="E57" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="F57" s="14" t="s">
-        <v>54</v>
+      <c r="F57" s="14">
+        <v>17.196391999999999</v>
       </c>
       <c r="G57" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="H57" s="14">
-        <v>112.614097</v>
+      <c r="H57" s="14" t="s">
+        <v>54</v>
       </c>
       <c r="I57" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="J57" s="14">
-        <v>-17.037409</v>
-      </c>
-      <c r="K57" s="14">
-        <v>-3.5516719999999999</v>
-      </c>
-      <c r="L57" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="M57" s="14">
-        <v>4.7862239999999998</v>
-      </c>
-      <c r="N57" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="O57" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="P57" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q57" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="R57" s="14">
-        <v>17.196391999999999</v>
-      </c>
-      <c r="S57" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="T57" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="U57" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>165</v>
       </c>
       <c r="B58" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="C58" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D58" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E58" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F58" s="14" t="s">
-        <v>54</v>
+      <c r="C58" s="14">
+        <v>8.4446329999999996</v>
+      </c>
+      <c r="D58" s="14">
+        <v>21.151579000000002</v>
+      </c>
+      <c r="E58" s="14">
+        <v>7.5429130000000004</v>
+      </c>
+      <c r="F58" s="14">
+        <v>4.3867750000000001</v>
       </c>
       <c r="G58" s="14">
-        <v>18.803158</v>
+        <v>6.6495119999999996</v>
       </c>
       <c r="H58" s="14">
-        <v>14.489755000000001</v>
+        <v>5.9324430000000001</v>
       </c>
       <c r="I58" s="14">
-        <v>22.31457</v>
-      </c>
-      <c r="J58" s="14">
-        <v>17.86054</v>
-      </c>
-      <c r="K58" s="14">
-        <v>11.317608999999999</v>
-      </c>
-      <c r="L58" s="14">
-        <v>11.909129</v>
-      </c>
-      <c r="M58" s="14">
-        <v>26.464801999999999</v>
-      </c>
-      <c r="N58" s="14">
-        <v>22.422432000000001</v>
-      </c>
-      <c r="O58" s="14">
-        <v>8.4446329999999996</v>
-      </c>
-      <c r="P58" s="14">
-        <v>21.151579000000002</v>
-      </c>
-      <c r="Q58" s="14">
-        <v>7.5429130000000004</v>
-      </c>
-      <c r="R58" s="14">
-        <v>4.3867750000000001</v>
-      </c>
-      <c r="S58" s="14">
-        <v>6.6495119999999996</v>
-      </c>
-      <c r="T58" s="14">
-        <v>5.9324430000000001</v>
-      </c>
-      <c r="U58" s="14">
         <v>-4.5423629999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>167</v>
       </c>
@@ -10090,56 +7426,20 @@
       <c r="E59" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="F59" s="14" t="s">
-        <v>54</v>
+      <c r="F59" s="14">
+        <v>17.152861999999999</v>
       </c>
       <c r="G59" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="H59" s="14">
-        <v>65.531852000000001</v>
+      <c r="H59" s="14" t="s">
+        <v>54</v>
       </c>
       <c r="I59" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="J59" s="14">
-        <v>-23.581671</v>
-      </c>
-      <c r="K59" s="14">
-        <v>-6.7787660000000001</v>
-      </c>
-      <c r="L59" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="M59" s="14">
-        <v>4.3937229999999996</v>
-      </c>
-      <c r="N59" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="O59" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="P59" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q59" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="R59" s="14">
-        <v>17.152861999999999</v>
-      </c>
-      <c r="S59" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="T59" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="U59" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="10"/>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
@@ -10149,20 +7449,8 @@
       <c r="G60" s="12"/>
       <c r="H60" s="12"/>
       <c r="I60" s="12"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="12"/>
-      <c r="L60" s="12"/>
-      <c r="M60" s="12"/>
-      <c r="N60" s="12"/>
-      <c r="O60" s="12"/>
-      <c r="P60" s="12"/>
-      <c r="Q60" s="12"/>
-      <c r="R60" s="12"/>
-      <c r="S60" s="12"/>
-      <c r="T60" s="12"/>
-      <c r="U60" s="12"/>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>191</v>
       </c>
@@ -10174,20 +7462,8 @@
       <c r="G61" s="18"/>
       <c r="H61" s="18"/>
       <c r="I61" s="18"/>
-      <c r="J61" s="18"/>
-      <c r="K61" s="18"/>
-      <c r="L61" s="18"/>
-      <c r="M61" s="18"/>
-      <c r="N61" s="18"/>
-      <c r="O61" s="18"/>
-      <c r="P61" s="18"/>
-      <c r="Q61" s="18"/>
-      <c r="R61" s="18"/>
-      <c r="S61" s="18"/>
-      <c r="T61" s="18"/>
-      <c r="U61" s="18"/>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>0</v>
       </c>
@@ -10195,64 +7471,28 @@
         <v>192</v>
       </c>
       <c r="C62" s="14">
-        <v>33.506762999999999</v>
+        <v>-19.960885999999999</v>
       </c>
       <c r="D62" s="14">
-        <v>14.789491</v>
+        <v>5.338851</v>
       </c>
       <c r="E62" s="14">
-        <v>-1.8460799999999999</v>
+        <v>3.1139250000000001</v>
       </c>
       <c r="F62" s="14">
-        <v>18.317218</v>
+        <v>9.0817440000000005</v>
       </c>
       <c r="G62" s="14">
-        <v>23.102308000000001</v>
+        <v>7.9476449999999996</v>
       </c>
       <c r="H62" s="14">
-        <v>21.275728000000001</v>
+        <v>5.4364340000000002</v>
       </c>
       <c r="I62" s="14">
-        <v>13.961836999999999</v>
-      </c>
-      <c r="J62" s="14">
-        <v>11.365688</v>
-      </c>
-      <c r="K62" s="14">
-        <v>17.114201999999999</v>
-      </c>
-      <c r="L62" s="14">
-        <v>9.9677589999999991</v>
-      </c>
-      <c r="M62" s="14">
-        <v>47.072657</v>
-      </c>
-      <c r="N62" s="14">
-        <v>18.946200000000001</v>
-      </c>
-      <c r="O62" s="14">
-        <v>-19.960885999999999</v>
-      </c>
-      <c r="P62" s="14">
-        <v>5.338851</v>
-      </c>
-      <c r="Q62" s="14">
-        <v>3.1139250000000001</v>
-      </c>
-      <c r="R62" s="14">
-        <v>9.0817440000000005</v>
-      </c>
-      <c r="S62" s="14">
-        <v>7.9476449999999996</v>
-      </c>
-      <c r="T62" s="14">
-        <v>5.4364340000000002</v>
-      </c>
-      <c r="U62" s="14">
         <v>3.4857320000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>68</v>
       </c>
@@ -10260,64 +7500,28 @@
         <v>193</v>
       </c>
       <c r="C63" s="14">
-        <v>62.825800000000001</v>
+        <v>13.382372999999999</v>
       </c>
       <c r="D63" s="14">
-        <v>34.604886</v>
+        <v>14.829336</v>
       </c>
       <c r="E63" s="14">
-        <v>-15.328644000000001</v>
+        <v>9.9940800000000003</v>
       </c>
       <c r="F63" s="14">
-        <v>18.940089</v>
+        <v>2.0931500000000001</v>
       </c>
       <c r="G63" s="14">
-        <v>25.050059000000001</v>
+        <v>10.056653000000001</v>
       </c>
       <c r="H63" s="14">
-        <v>11.548702</v>
+        <v>0.27131899999999998</v>
       </c>
       <c r="I63" s="14">
-        <v>10.979963</v>
-      </c>
-      <c r="J63" s="14">
-        <v>8.4896209999999996</v>
-      </c>
-      <c r="K63" s="14">
-        <v>-72.798242999999999</v>
-      </c>
-      <c r="L63" s="14">
-        <v>355.65002199999998</v>
-      </c>
-      <c r="M63" s="14">
-        <v>54.443685000000002</v>
-      </c>
-      <c r="N63" s="14">
-        <v>12.91954</v>
-      </c>
-      <c r="O63" s="14">
-        <v>13.382372999999999</v>
-      </c>
-      <c r="P63" s="14">
-        <v>14.829336</v>
-      </c>
-      <c r="Q63" s="14">
-        <v>9.9940800000000003</v>
-      </c>
-      <c r="R63" s="14">
-        <v>2.0931500000000001</v>
-      </c>
-      <c r="S63" s="14">
-        <v>10.056653000000001</v>
-      </c>
-      <c r="T63" s="14">
-        <v>0.27131899999999998</v>
-      </c>
-      <c r="U63" s="14">
         <v>-8.5981690000000004</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>94</v>
       </c>
@@ -10325,64 +7529,28 @@
         <v>194</v>
       </c>
       <c r="C64" s="14">
-        <v>67.216254000000006</v>
+        <v>11.818384999999999</v>
       </c>
       <c r="D64" s="14">
-        <v>39.988953000000002</v>
+        <v>21.756350000000001</v>
       </c>
       <c r="E64" s="14">
-        <v>-24.250104</v>
+        <v>19.384042000000001</v>
       </c>
       <c r="F64" s="14">
-        <v>20.528645000000001</v>
+        <v>1.043506</v>
       </c>
       <c r="G64" s="14">
-        <v>28.088787</v>
+        <v>10.876477</v>
       </c>
       <c r="H64" s="14">
-        <v>7.1028960000000003</v>
+        <v>-7.3471140000000004</v>
       </c>
       <c r="I64" s="14">
-        <v>9.509036</v>
-      </c>
-      <c r="J64" s="14">
-        <v>5.715109</v>
-      </c>
-      <c r="K64" s="14">
-        <v>-118.212748</v>
-      </c>
-      <c r="L64" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="M64" s="14">
-        <v>41.094791000000001</v>
-      </c>
-      <c r="N64" s="14">
-        <v>11.955883</v>
-      </c>
-      <c r="O64" s="14">
-        <v>11.818384999999999</v>
-      </c>
-      <c r="P64" s="14">
-        <v>21.756350000000001</v>
-      </c>
-      <c r="Q64" s="14">
-        <v>19.384042000000001</v>
-      </c>
-      <c r="R64" s="14">
-        <v>1.043506</v>
-      </c>
-      <c r="S64" s="14">
-        <v>10.876477</v>
-      </c>
-      <c r="T64" s="14">
-        <v>-7.3471140000000004</v>
-      </c>
-      <c r="U64" s="14">
         <v>-24.885470000000002</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>123</v>
       </c>
@@ -10390,64 +7558,28 @@
         <v>195</v>
       </c>
       <c r="C65" s="14">
-        <v>68.661888000000005</v>
+        <v>10.716892</v>
       </c>
       <c r="D65" s="14">
-        <v>-152.03747200000001</v>
-      </c>
-      <c r="E65" s="14" t="s">
-        <v>54</v>
+        <v>23.794082</v>
+      </c>
+      <c r="E65" s="14">
+        <v>20.011977999999999</v>
       </c>
       <c r="F65" s="14">
-        <v>-4.1875679999999997</v>
+        <v>7.280939</v>
       </c>
       <c r="G65" s="14">
-        <v>20.484165999999998</v>
+        <v>8.5220249999999993</v>
       </c>
       <c r="H65" s="14">
-        <v>17.273063</v>
+        <v>-7.904331</v>
       </c>
       <c r="I65" s="14">
-        <v>12.143214</v>
-      </c>
-      <c r="J65" s="14">
-        <v>5.0260189999999998</v>
-      </c>
-      <c r="K65" s="14">
-        <v>1.0363599999999999</v>
-      </c>
-      <c r="L65" s="14">
-        <v>13.941504</v>
-      </c>
-      <c r="M65" s="14">
-        <v>43.675209000000002</v>
-      </c>
-      <c r="N65" s="14">
-        <v>14.668746000000001</v>
-      </c>
-      <c r="O65" s="14">
-        <v>10.716892</v>
-      </c>
-      <c r="P65" s="14">
-        <v>23.794082</v>
-      </c>
-      <c r="Q65" s="14">
-        <v>20.011977999999999</v>
-      </c>
-      <c r="R65" s="14">
-        <v>7.280939</v>
-      </c>
-      <c r="S65" s="14">
-        <v>8.5220249999999993</v>
-      </c>
-      <c r="T65" s="14">
-        <v>-7.904331</v>
-      </c>
-      <c r="U65" s="14">
         <v>-37.281036</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>125</v>
       </c>
@@ -10466,53 +7598,17 @@
       <c r="F66" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="G66" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H66" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="I66" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="J66" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="K66" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="L66" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="M66" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="N66" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="O66" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="P66" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q66" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="R66" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="S66" s="14">
+      <c r="G66" s="14">
         <v>8.5808579999999992</v>
       </c>
-      <c r="T66" s="14">
+      <c r="H66" s="14">
         <v>-7.902736</v>
       </c>
-      <c r="U66" s="14">
+      <c r="I66" s="14">
         <v>-37.293728999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>127</v>
       </c>
@@ -10531,53 +7627,17 @@
       <c r="F67" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="G67" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H67" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="I67" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="J67" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="K67" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="L67" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="M67" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="N67" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="O67" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="P67" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q67" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="R67" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="S67" s="14">
+      <c r="G67" s="14">
         <v>8.5808579999999992</v>
       </c>
-      <c r="T67" s="14">
+      <c r="H67" s="14">
         <v>-7.902736</v>
       </c>
-      <c r="U67" s="14">
+      <c r="I67" s="14">
         <v>-37.293728999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>129</v>
       </c>
@@ -10596,53 +7656,17 @@
       <c r="F68" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="G68" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H68" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="I68" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="J68" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="K68" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="L68" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="M68" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="N68" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="O68" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="P68" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q68" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="R68" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="S68" s="14">
+      <c r="G68" s="14">
         <v>7.9764699999999999</v>
       </c>
-      <c r="T68" s="14">
+      <c r="H68" s="14">
         <v>-12.613768</v>
       </c>
-      <c r="U68" s="14">
+      <c r="I68" s="14">
         <v>-33.545470000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>131</v>
       </c>
@@ -10650,64 +7674,28 @@
         <v>199</v>
       </c>
       <c r="C69" s="14">
-        <v>-60.000002000000002</v>
+        <v>0</v>
       </c>
       <c r="D69" s="14">
-        <v>50.000008999999999</v>
+        <v>33.333333000000003</v>
       </c>
       <c r="E69" s="14">
-        <v>122.222217</v>
+        <v>6.25</v>
       </c>
       <c r="F69" s="14">
-        <v>0</v>
+        <v>35.294117999999997</v>
       </c>
       <c r="G69" s="14">
-        <v>13.65638</v>
+        <v>27.536231999999998</v>
       </c>
       <c r="H69" s="14">
-        <v>0</v>
+        <v>-9.0909089999999999</v>
       </c>
       <c r="I69" s="14">
-        <v>0</v>
-      </c>
-      <c r="J69" s="14">
-        <v>-28.000004000000001</v>
-      </c>
-      <c r="K69" s="14">
-        <v>20.000008000000001</v>
-      </c>
-      <c r="L69" s="14">
-        <v>24.999997</v>
-      </c>
-      <c r="M69" s="14">
-        <v>16.481480999999999</v>
-      </c>
-      <c r="N69" s="14">
-        <v>43.084260999999998</v>
-      </c>
-      <c r="O69" s="14">
-        <v>0</v>
-      </c>
-      <c r="P69" s="14">
-        <v>33.333333000000003</v>
-      </c>
-      <c r="Q69" s="14">
-        <v>6.25</v>
-      </c>
-      <c r="R69" s="14">
-        <v>35.294117999999997</v>
-      </c>
-      <c r="S69" s="14">
-        <v>27.536231999999998</v>
-      </c>
-      <c r="T69" s="14">
-        <v>-9.0909089999999999</v>
-      </c>
-      <c r="U69" s="14">
         <v>-20</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="10"/>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
@@ -10717,20 +7705,8 @@
       <c r="G70" s="12"/>
       <c r="H70" s="12"/>
       <c r="I70" s="12"/>
-      <c r="J70" s="12"/>
-      <c r="K70" s="12"/>
-      <c r="L70" s="12"/>
-      <c r="M70" s="12"/>
-      <c r="N70" s="12"/>
-      <c r="O70" s="12"/>
-      <c r="P70" s="12"/>
-      <c r="Q70" s="12"/>
-      <c r="R70" s="12"/>
-      <c r="S70" s="12"/>
-      <c r="T70" s="12"/>
-      <c r="U70" s="12"/>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>133</v>
       </c>
@@ -10738,64 +7714,28 @@
         <v>200</v>
       </c>
       <c r="C71" s="14">
-        <v>40.456211000000003</v>
+        <v>15.912481</v>
       </c>
       <c r="D71" s="14">
-        <v>-47.621540000000003</v>
+        <v>22.965823</v>
       </c>
       <c r="E71" s="14">
-        <v>152.03040200000001</v>
+        <v>47.168275000000001</v>
       </c>
       <c r="F71" s="14">
-        <v>-28.399080000000001</v>
+        <v>-24.38035</v>
       </c>
       <c r="G71" s="14">
-        <v>-22.702582</v>
+        <v>14.364833000000001</v>
       </c>
       <c r="H71" s="14">
-        <v>25.039435000000001</v>
+        <v>28.075412</v>
       </c>
       <c r="I71" s="14">
-        <v>-15.082006</v>
-      </c>
-      <c r="J71" s="14">
-        <v>55.524050000000003</v>
-      </c>
-      <c r="K71" s="14">
-        <v>-22.431612000000001</v>
-      </c>
-      <c r="L71" s="14">
-        <v>-2.9220799999999998</v>
-      </c>
-      <c r="M71" s="14">
-        <v>140.56048899999999</v>
-      </c>
-      <c r="N71" s="14">
-        <v>-13.231699000000001</v>
-      </c>
-      <c r="O71" s="14">
-        <v>15.912481</v>
-      </c>
-      <c r="P71" s="14">
-        <v>22.965823</v>
-      </c>
-      <c r="Q71" s="14">
-        <v>47.168275000000001</v>
-      </c>
-      <c r="R71" s="14">
-        <v>-24.38035</v>
-      </c>
-      <c r="S71" s="14">
-        <v>14.364833000000001</v>
-      </c>
-      <c r="T71" s="14">
-        <v>28.075412</v>
-      </c>
-      <c r="U71" s="14">
         <v>15.647665999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>135</v>
       </c>
@@ -10803,64 +7743,28 @@
         <v>201</v>
       </c>
       <c r="C72" s="14">
-        <v>4.9244779999999997</v>
+        <v>1.983568</v>
       </c>
       <c r="D72" s="14">
-        <v>40.188014000000003</v>
+        <v>1.0107010000000001</v>
       </c>
       <c r="E72" s="14">
-        <v>-4.9310890000000001</v>
+        <v>4.4781190000000004</v>
       </c>
       <c r="F72" s="14">
-        <v>23.547713000000002</v>
+        <v>5.4528999999999996</v>
       </c>
       <c r="G72" s="14">
-        <v>18.255438000000002</v>
+        <v>23.573761999999999</v>
       </c>
       <c r="H72" s="14">
-        <v>12.559901999999999</v>
+        <v>12.614248999999999</v>
       </c>
       <c r="I72" s="14">
-        <v>23.336987000000001</v>
-      </c>
-      <c r="J72" s="14">
-        <v>27.495145000000001</v>
-      </c>
-      <c r="K72" s="14">
-        <v>-4.7737550000000004</v>
-      </c>
-      <c r="L72" s="14">
-        <v>14.189204</v>
-      </c>
-      <c r="M72" s="14">
-        <v>64.042726000000002</v>
-      </c>
-      <c r="N72" s="14">
-        <v>25.896415999999999</v>
-      </c>
-      <c r="O72" s="14">
-        <v>1.983568</v>
-      </c>
-      <c r="P72" s="14">
-        <v>1.0107010000000001</v>
-      </c>
-      <c r="Q72" s="14">
-        <v>4.4781190000000004</v>
-      </c>
-      <c r="R72" s="14">
-        <v>5.4528999999999996</v>
-      </c>
-      <c r="S72" s="14">
-        <v>23.573761999999999</v>
-      </c>
-      <c r="T72" s="14">
-        <v>12.614248999999999</v>
-      </c>
-      <c r="U72" s="14">
         <v>11.308838</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>137</v>
       </c>
@@ -10868,64 +7772,28 @@
         <v>202</v>
       </c>
       <c r="C73" s="14">
-        <v>10.402029000000001</v>
+        <v>-3.2343109999999999</v>
       </c>
       <c r="D73" s="14">
-        <v>23.691825999999999</v>
+        <v>-2.2079599999999999</v>
       </c>
       <c r="E73" s="14">
-        <v>7.0268449999999998</v>
+        <v>10.604001999999999</v>
       </c>
       <c r="F73" s="14">
-        <v>0.50832100000000002</v>
+        <v>3.3683969999999999</v>
       </c>
       <c r="G73" s="14">
-        <v>15.725410999999999</v>
+        <v>21.509781</v>
       </c>
       <c r="H73" s="14">
-        <v>-1.7745610000000001</v>
+        <v>27.346826</v>
       </c>
       <c r="I73" s="14">
-        <v>10.339955</v>
-      </c>
-      <c r="J73" s="14">
-        <v>23.453859999999999</v>
-      </c>
-      <c r="K73" s="14">
-        <v>9.1630389999999995</v>
-      </c>
-      <c r="L73" s="14">
-        <v>28.416108000000001</v>
-      </c>
-      <c r="M73" s="14">
-        <v>23.076923000000001</v>
-      </c>
-      <c r="N73" s="14">
-        <v>30.347868999999999</v>
-      </c>
-      <c r="O73" s="14">
-        <v>-3.2343109999999999</v>
-      </c>
-      <c r="P73" s="14">
-        <v>-2.2079599999999999</v>
-      </c>
-      <c r="Q73" s="14">
-        <v>10.604001999999999</v>
-      </c>
-      <c r="R73" s="14">
-        <v>3.3683969999999999</v>
-      </c>
-      <c r="S73" s="14">
-        <v>21.509781</v>
-      </c>
-      <c r="T73" s="14">
-        <v>27.346826</v>
-      </c>
-      <c r="U73" s="14">
         <v>16.237217999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>139</v>
       </c>
@@ -10933,64 +7801,28 @@
         <v>203</v>
       </c>
       <c r="C74" s="14">
-        <v>19.445691</v>
+        <v>-2.434113</v>
       </c>
       <c r="D74" s="14">
-        <v>5.9469919999999998</v>
+        <v>9.3812850000000001</v>
       </c>
       <c r="E74" s="14">
-        <v>7.023199</v>
+        <v>9.3073200000000007</v>
       </c>
       <c r="F74" s="14">
-        <v>0.39171099999999998</v>
+        <v>9.9021109999999997</v>
       </c>
       <c r="G74" s="14">
-        <v>33.273944</v>
+        <v>12.625887000000001</v>
       </c>
       <c r="H74" s="14">
-        <v>-5.2606529999999996</v>
+        <v>11.228210000000001</v>
       </c>
       <c r="I74" s="14">
-        <v>12.839968000000001</v>
-      </c>
-      <c r="J74" s="14">
-        <v>21.030134</v>
-      </c>
-      <c r="K74" s="14">
-        <v>6.5602819999999999</v>
-      </c>
-      <c r="L74" s="14">
-        <v>19.376929000000001</v>
-      </c>
-      <c r="M74" s="14">
-        <v>42.177909999999997</v>
-      </c>
-      <c r="N74" s="14">
-        <v>21.461224000000001</v>
-      </c>
-      <c r="O74" s="14">
-        <v>-2.434113</v>
-      </c>
-      <c r="P74" s="14">
-        <v>9.3812850000000001</v>
-      </c>
-      <c r="Q74" s="14">
-        <v>9.3073200000000007</v>
-      </c>
-      <c r="R74" s="14">
-        <v>9.9021109999999997</v>
-      </c>
-      <c r="S74" s="14">
-        <v>12.625887000000001</v>
-      </c>
-      <c r="T74" s="14">
-        <v>11.228210000000001</v>
-      </c>
-      <c r="U74" s="14">
         <v>20.306494000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>145</v>
       </c>
@@ -11012,50 +7844,14 @@
       <c r="G75" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="H75" s="14">
-        <v>4.8339059999999998</v>
-      </c>
-      <c r="I75" s="14">
-        <v>-21.04458</v>
-      </c>
-      <c r="J75" s="14">
-        <v>9.6595630000000003</v>
-      </c>
-      <c r="K75" s="14">
-        <v>18.273599000000001</v>
-      </c>
-      <c r="L75" s="14">
-        <v>70.721297000000007</v>
-      </c>
-      <c r="M75" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="N75" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="O75" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="P75" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q75" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="R75" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="S75" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="T75" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="U75" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H75" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I75" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
         <v>147</v>
       </c>
@@ -11063,64 +7859,28 @@
         <v>205</v>
       </c>
       <c r="C76" s="14">
-        <v>-12.823664000000001</v>
+        <v>-0.26985500000000001</v>
       </c>
       <c r="D76" s="14">
-        <v>4.0485959999999999</v>
+        <v>7.4935530000000004</v>
       </c>
       <c r="E76" s="14">
-        <v>15.163511</v>
+        <v>6.5142199999999999</v>
       </c>
       <c r="F76" s="14">
-        <v>37.992657999999999</v>
+        <v>6.7057149999999996</v>
       </c>
       <c r="G76" s="14">
-        <v>56.097968000000002</v>
+        <v>8.6784739999999996</v>
       </c>
       <c r="H76" s="14">
-        <v>15.612669</v>
+        <v>-2.9284849999999998</v>
       </c>
       <c r="I76" s="14">
-        <v>6.9097189999999999</v>
-      </c>
-      <c r="J76" s="14">
-        <v>29.787410000000001</v>
-      </c>
-      <c r="K76" s="14">
-        <v>4.5365099999999998</v>
-      </c>
-      <c r="L76" s="14">
-        <v>17.585964000000001</v>
-      </c>
-      <c r="M76" s="14">
-        <v>54.315770999999998</v>
-      </c>
-      <c r="N76" s="14">
-        <v>13.295868</v>
-      </c>
-      <c r="O76" s="14">
-        <v>-0.26985500000000001</v>
-      </c>
-      <c r="P76" s="14">
-        <v>7.4935530000000004</v>
-      </c>
-      <c r="Q76" s="14">
-        <v>6.5142199999999999</v>
-      </c>
-      <c r="R76" s="14">
-        <v>6.7057149999999996</v>
-      </c>
-      <c r="S76" s="14">
-        <v>8.6784739999999996</v>
-      </c>
-      <c r="T76" s="14">
-        <v>-2.9284849999999998</v>
-      </c>
-      <c r="U76" s="14">
         <v>-2.4038729999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
         <v>149</v>
       </c>
@@ -11128,64 +7888,28 @@
         <v>206</v>
       </c>
       <c r="C77" s="14">
-        <v>-41.700859000000001</v>
-      </c>
-      <c r="D77" s="14">
-        <v>-78.977326000000005</v>
-      </c>
-      <c r="E77" s="14">
-        <v>482.70745499999998</v>
-      </c>
-      <c r="F77" s="14">
-        <v>0.43964500000000001</v>
-      </c>
-      <c r="G77" s="14">
-        <v>113.773383</v>
-      </c>
-      <c r="H77" s="14">
-        <v>-98.871488999999997</v>
+        <v>-100</v>
+      </c>
+      <c r="D77" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E77" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F77" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G77" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H77" s="14" t="s">
+        <v>54</v>
       </c>
       <c r="I77" s="14">
-        <v>-100</v>
-      </c>
-      <c r="J77" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="K77" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="L77" s="14">
-        <v>103.583054</v>
-      </c>
-      <c r="M77" s="14">
-        <v>-100</v>
-      </c>
-      <c r="N77" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="O77" s="14">
-        <v>-100</v>
-      </c>
-      <c r="P77" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q77" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="R77" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="S77" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="T77" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="U77" s="14">
         <v>406.38196499999998</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
         <v>151</v>
       </c>
@@ -11193,64 +7917,28 @@
         <v>207</v>
       </c>
       <c r="C78" s="14">
-        <v>-2.3547829999999998</v>
-      </c>
-      <c r="D78" s="14">
-        <v>30.520409000000001</v>
-      </c>
-      <c r="E78" s="14">
-        <v>-2.4327260000000002</v>
-      </c>
-      <c r="F78" s="14">
-        <v>-32.001815999999998</v>
-      </c>
-      <c r="G78" s="14">
-        <v>-4.3585979999999998</v>
-      </c>
-      <c r="H78" s="14">
-        <v>-98.990519000000006</v>
+        <v>-100</v>
+      </c>
+      <c r="D78" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E78" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F78" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G78" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H78" s="14" t="s">
+        <v>54</v>
       </c>
       <c r="I78" s="14">
-        <v>-100</v>
-      </c>
-      <c r="J78" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="K78" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="L78" s="14">
-        <v>103.583054</v>
-      </c>
-      <c r="M78" s="14">
-        <v>-100</v>
-      </c>
-      <c r="N78" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="O78" s="14">
-        <v>-100</v>
-      </c>
-      <c r="P78" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q78" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="R78" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="S78" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="T78" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="U78" s="14">
         <v>464.42228699999998</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
         <v>153</v>
       </c>
@@ -11258,64 +7946,28 @@
         <v>208</v>
       </c>
       <c r="C79" s="14">
-        <v>51.700547</v>
+        <v>11.554368999999999</v>
       </c>
       <c r="D79" s="14">
-        <v>-9.7850429999999999</v>
+        <v>14.458938</v>
       </c>
       <c r="E79" s="14">
-        <v>13.745131000000001</v>
+        <v>14.597452000000001</v>
       </c>
       <c r="F79" s="14">
-        <v>11.756962</v>
+        <v>13.797487</v>
       </c>
       <c r="G79" s="14">
-        <v>43.459510000000002</v>
+        <v>11.883965999999999</v>
       </c>
       <c r="H79" s="14">
-        <v>14.304173</v>
+        <v>8.5016339999999992</v>
       </c>
       <c r="I79" s="14">
-        <v>11.163498000000001</v>
-      </c>
-      <c r="J79" s="14">
-        <v>7.8435569999999997</v>
-      </c>
-      <c r="K79" s="14">
-        <v>10.048852999999999</v>
-      </c>
-      <c r="L79" s="14">
-        <v>10.294428999999999</v>
-      </c>
-      <c r="M79" s="14">
-        <v>27.172104000000001</v>
-      </c>
-      <c r="N79" s="14">
-        <v>11.561908000000001</v>
-      </c>
-      <c r="O79" s="14">
-        <v>11.554368999999999</v>
-      </c>
-      <c r="P79" s="14">
-        <v>14.458938</v>
-      </c>
-      <c r="Q79" s="14">
-        <v>14.597452000000001</v>
-      </c>
-      <c r="R79" s="14">
-        <v>13.797487</v>
-      </c>
-      <c r="S79" s="14">
-        <v>11.883965999999999</v>
-      </c>
-      <c r="T79" s="14">
-        <v>8.5016339999999992</v>
-      </c>
-      <c r="U79" s="14">
         <v>3.429513</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
         <v>155</v>
       </c>
@@ -11323,64 +7975,28 @@
         <v>209</v>
       </c>
       <c r="C80" s="14">
-        <v>27.790209000000001</v>
+        <v>-5.5253870000000003</v>
       </c>
       <c r="D80" s="14">
-        <v>3.8376950000000001</v>
+        <v>14.458938</v>
       </c>
       <c r="E80" s="14">
-        <v>6.8721519999999998</v>
+        <v>14.597452000000001</v>
       </c>
       <c r="F80" s="14">
-        <v>-5.2148729999999999</v>
+        <v>13.797487</v>
       </c>
       <c r="G80" s="14">
-        <v>30.154565000000002</v>
+        <v>11.883965999999999</v>
       </c>
       <c r="H80" s="14">
-        <v>-8.8600010000000005</v>
+        <v>16.800303</v>
       </c>
       <c r="I80" s="14">
-        <v>10.911754999999999</v>
-      </c>
-      <c r="J80" s="14">
-        <v>7.8435569999999997</v>
-      </c>
-      <c r="K80" s="14">
-        <v>10.108776000000001</v>
-      </c>
-      <c r="L80" s="14">
-        <v>10.345198</v>
-      </c>
-      <c r="M80" s="14">
-        <v>27.044415999999998</v>
-      </c>
-      <c r="N80" s="14">
-        <v>31.730822</v>
-      </c>
-      <c r="O80" s="14">
-        <v>-5.5253870000000003</v>
-      </c>
-      <c r="P80" s="14">
-        <v>14.458938</v>
-      </c>
-      <c r="Q80" s="14">
-        <v>14.597452000000001</v>
-      </c>
-      <c r="R80" s="14">
-        <v>13.797487</v>
-      </c>
-      <c r="S80" s="14">
-        <v>11.883965999999999</v>
-      </c>
-      <c r="T80" s="14">
-        <v>16.800303</v>
-      </c>
-      <c r="U80" s="14">
         <v>36.183079999999997</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
         <v>157</v>
       </c>
@@ -11388,64 +8004,28 @@
         <v>210</v>
       </c>
       <c r="C81" s="14">
-        <v>17.470677999999999</v>
+        <v>11.554368999999999</v>
       </c>
       <c r="D81" s="14">
-        <v>-9.7850429999999999</v>
+        <v>14.458938</v>
       </c>
       <c r="E81" s="14">
-        <v>13.745131000000001</v>
+        <v>14.597452000000001</v>
       </c>
       <c r="F81" s="14">
-        <v>11.756962</v>
+        <v>13.797487</v>
       </c>
       <c r="G81" s="14">
-        <v>8.70059</v>
+        <v>11.883965999999999</v>
       </c>
       <c r="H81" s="14">
-        <v>14.304173</v>
+        <v>7.7307220000000001</v>
       </c>
       <c r="I81" s="14">
-        <v>11.163498000000001</v>
-      </c>
-      <c r="J81" s="14">
-        <v>7.8435569999999997</v>
-      </c>
-      <c r="K81" s="14">
-        <v>10.048852999999999</v>
-      </c>
-      <c r="L81" s="14">
-        <v>10.294428999999999</v>
-      </c>
-      <c r="M81" s="14">
-        <v>27.172104000000001</v>
-      </c>
-      <c r="N81" s="14">
-        <v>11.561908000000001</v>
-      </c>
-      <c r="O81" s="14">
-        <v>11.554368999999999</v>
-      </c>
-      <c r="P81" s="14">
-        <v>14.458938</v>
-      </c>
-      <c r="Q81" s="14">
-        <v>14.597452000000001</v>
-      </c>
-      <c r="R81" s="14">
-        <v>13.797487</v>
-      </c>
-      <c r="S81" s="14">
-        <v>11.883965999999999</v>
-      </c>
-      <c r="T81" s="14">
-        <v>7.7307220000000001</v>
-      </c>
-      <c r="U81" s="14">
         <v>3.5520939999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="10"/>
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
@@ -11455,20 +8035,8 @@
       <c r="G82" s="12"/>
       <c r="H82" s="12"/>
       <c r="I82" s="12"/>
-      <c r="J82" s="12"/>
-      <c r="K82" s="12"/>
-      <c r="L82" s="12"/>
-      <c r="M82" s="12"/>
-      <c r="N82" s="12"/>
-      <c r="O82" s="12"/>
-      <c r="P82" s="12"/>
-      <c r="Q82" s="12"/>
-      <c r="R82" s="12"/>
-      <c r="S82" s="12"/>
-      <c r="T82" s="12"/>
-      <c r="U82" s="12"/>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
         <v>159</v>
       </c>
@@ -11476,64 +8044,28 @@
         <v>211</v>
       </c>
       <c r="C83" s="14">
-        <v>-15.372812</v>
+        <v>-17.366465000000002</v>
       </c>
       <c r="D83" s="14">
-        <v>37.270516000000001</v>
+        <v>35.494686000000002</v>
       </c>
       <c r="E83" s="14">
-        <v>6.676577</v>
+        <v>-2.0965940000000001</v>
       </c>
       <c r="F83" s="14">
-        <v>9.9316980000000008</v>
+        <v>14.227009000000001</v>
       </c>
       <c r="G83" s="14">
-        <v>79.760262999999995</v>
+        <v>10.801759000000001</v>
       </c>
       <c r="H83" s="14">
-        <v>-26.716982999999999</v>
+        <v>-20.519621000000001</v>
       </c>
       <c r="I83" s="14">
-        <v>18.850660999999999</v>
-      </c>
-      <c r="J83" s="14">
-        <v>51.941361999999998</v>
-      </c>
-      <c r="K83" s="14">
-        <v>-23.075416000000001</v>
-      </c>
-      <c r="L83" s="14">
-        <v>78.153959999999998</v>
-      </c>
-      <c r="M83" s="14">
-        <v>32.703440999999998</v>
-      </c>
-      <c r="N83" s="14">
-        <v>-0.95840000000000003</v>
-      </c>
-      <c r="O83" s="14">
-        <v>-17.366465000000002</v>
-      </c>
-      <c r="P83" s="14">
-        <v>35.494686000000002</v>
-      </c>
-      <c r="Q83" s="14">
-        <v>-2.0965940000000001</v>
-      </c>
-      <c r="R83" s="14">
-        <v>14.227009000000001</v>
-      </c>
-      <c r="S83" s="14">
-        <v>10.801759000000001</v>
-      </c>
-      <c r="T83" s="14">
-        <v>-20.519621000000001</v>
-      </c>
-      <c r="U83" s="14">
         <v>-22.672190000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
         <v>76</v>
       </c>
@@ -11541,129 +8073,57 @@
         <v>212</v>
       </c>
       <c r="C84" s="14">
-        <v>-55.122753000000003</v>
+        <v>-80.646780000000007</v>
       </c>
       <c r="D84" s="14">
-        <v>109.722802</v>
+        <v>26.523042</v>
       </c>
       <c r="E84" s="14">
-        <v>-48.682865999999997</v>
+        <v>164.72031100000001</v>
       </c>
       <c r="F84" s="14">
-        <v>2.0207449999999998</v>
+        <v>-36.874822999999999</v>
       </c>
       <c r="G84" s="14">
-        <v>110.56979200000001</v>
+        <v>162.599345</v>
       </c>
       <c r="H84" s="14">
-        <v>-76.974196000000006</v>
+        <v>32.598621000000001</v>
       </c>
       <c r="I84" s="14">
-        <v>271.147516</v>
-      </c>
-      <c r="J84" s="14">
-        <v>92.425470000000004</v>
-      </c>
-      <c r="K84" s="14">
-        <v>-32.134481999999998</v>
-      </c>
-      <c r="L84" s="14">
-        <v>130.947609</v>
-      </c>
-      <c r="M84" s="14">
-        <v>-14.036859</v>
-      </c>
-      <c r="N84" s="14">
-        <v>105.373414</v>
-      </c>
-      <c r="O84" s="14">
-        <v>-80.646780000000007</v>
-      </c>
-      <c r="P84" s="14">
-        <v>26.523042</v>
-      </c>
-      <c r="Q84" s="14">
-        <v>164.72031100000001</v>
-      </c>
-      <c r="R84" s="14">
-        <v>-36.874822999999999</v>
-      </c>
-      <c r="S84" s="14">
-        <v>162.599345</v>
-      </c>
-      <c r="T84" s="14">
-        <v>32.598621000000001</v>
-      </c>
-      <c r="U84" s="14">
         <v>1.762311</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
         <v>162</v>
       </c>
       <c r="B85" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="C85" s="14">
-        <v>362.02337799999998</v>
-      </c>
-      <c r="D85" s="14">
-        <v>-239.379717</v>
-      </c>
-      <c r="E85" s="14" t="s">
-        <v>54</v>
+      <c r="C85" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D85" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E85" s="14">
+        <v>-94.766845000000004</v>
       </c>
       <c r="F85" s="14">
-        <v>-348.43578400000001</v>
-      </c>
-      <c r="G85" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H85" s="14">
-        <v>-129.87112500000001</v>
+        <v>1018.641562</v>
+      </c>
+      <c r="G85" s="14">
+        <v>-224.227363</v>
+      </c>
+      <c r="H85" s="14" t="s">
+        <v>54</v>
       </c>
       <c r="I85" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="J85" s="14">
-        <v>-125.35610800000001</v>
-      </c>
-      <c r="K85" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="L85" s="14">
-        <v>-515.75105199999996</v>
-      </c>
-      <c r="M85" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="N85" s="14">
-        <v>-134.740612</v>
-      </c>
-      <c r="O85" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="P85" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q85" s="14">
-        <v>-94.766845000000004</v>
-      </c>
-      <c r="R85" s="14">
-        <v>1018.641562</v>
-      </c>
-      <c r="S85" s="14">
-        <v>-224.227363</v>
-      </c>
-      <c r="T85" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="U85" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
         <v>78</v>
       </c>
@@ -11674,61 +8134,25 @@
         <v>54</v>
       </c>
       <c r="D86" s="14">
-        <v>-1847.9156640000001</v>
-      </c>
-      <c r="E86" s="14" t="s">
-        <v>54</v>
+        <v>40.199187000000002</v>
+      </c>
+      <c r="E86" s="14">
+        <v>-81.038169999999994</v>
       </c>
       <c r="F86" s="14">
-        <v>29.090416999999999</v>
+        <v>351.83228500000001</v>
       </c>
       <c r="G86" s="14">
-        <v>20.792155999999999</v>
-      </c>
-      <c r="H86" s="14">
-        <v>140.965564</v>
-      </c>
-      <c r="I86" s="14">
-        <v>-61.587311</v>
-      </c>
-      <c r="J86" s="14">
-        <v>-72.769908000000001</v>
-      </c>
-      <c r="K86" s="14">
-        <v>174.12962899999999</v>
-      </c>
-      <c r="L86" s="14">
-        <v>-206.36384200000001</v>
-      </c>
-      <c r="M86" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="N86" s="14">
-        <v>-259.16989799999999</v>
-      </c>
-      <c r="O86" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="P86" s="14">
-        <v>40.199187000000002</v>
-      </c>
-      <c r="Q86" s="14">
-        <v>-81.038169999999994</v>
-      </c>
-      <c r="R86" s="14">
-        <v>351.83228500000001</v>
-      </c>
-      <c r="S86" s="14">
         <v>-129.30624900000001</v>
       </c>
-      <c r="T86" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="U86" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H86" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I86" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
         <v>165</v>
       </c>
@@ -11736,64 +8160,28 @@
         <v>215</v>
       </c>
       <c r="C87" s="14">
-        <v>-13.456446</v>
+        <v>-17.179501999999999</v>
       </c>
       <c r="D87" s="14">
-        <v>-15.864680999999999</v>
+        <v>34.451222000000001</v>
       </c>
       <c r="E87" s="14">
-        <v>82.789551000000003</v>
+        <v>-2.1040260000000002</v>
       </c>
       <c r="F87" s="14">
-        <v>2.7974809999999999</v>
+        <v>14.226564</v>
       </c>
       <c r="G87" s="14">
-        <v>72.978852000000003</v>
+        <v>10.805118</v>
       </c>
       <c r="H87" s="14">
-        <v>-28.067041</v>
+        <v>-19.926573000000001</v>
       </c>
       <c r="I87" s="14">
-        <v>17.094415000000001</v>
-      </c>
-      <c r="J87" s="14">
-        <v>51.845717999999998</v>
-      </c>
-      <c r="K87" s="14">
-        <v>-22.739115999999999</v>
-      </c>
-      <c r="L87" s="14">
-        <v>77.623834000000002</v>
-      </c>
-      <c r="M87" s="14">
-        <v>32.571050999999997</v>
-      </c>
-      <c r="N87" s="14">
-        <v>-0.46109499999999998</v>
-      </c>
-      <c r="O87" s="14">
-        <v>-17.179501999999999</v>
-      </c>
-      <c r="P87" s="14">
-        <v>34.451222000000001</v>
-      </c>
-      <c r="Q87" s="14">
-        <v>-2.1040260000000002</v>
-      </c>
-      <c r="R87" s="14">
-        <v>14.226564</v>
-      </c>
-      <c r="S87" s="14">
-        <v>10.805118</v>
-      </c>
-      <c r="T87" s="14">
-        <v>-19.926573000000001</v>
-      </c>
-      <c r="U87" s="14">
         <v>-20.113531999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
         <v>167</v>
       </c>
@@ -11804,61 +8192,25 @@
         <v>54</v>
       </c>
       <c r="D88" s="14">
-        <v>-931.53763500000002</v>
-      </c>
-      <c r="E88" s="14" t="s">
-        <v>54</v>
+        <v>38.559452</v>
+      </c>
+      <c r="E88" s="14">
+        <v>-81.039837000000006</v>
       </c>
       <c r="F88" s="14">
-        <v>4.0403529999999996</v>
+        <v>351.81887699999999</v>
       </c>
       <c r="G88" s="14">
-        <v>13.996389000000001</v>
-      </c>
-      <c r="H88" s="14">
-        <v>113.68101299999999</v>
-      </c>
-      <c r="I88" s="14">
-        <v>-62.250312000000001</v>
-      </c>
-      <c r="J88" s="14">
-        <v>-72.759473999999997</v>
-      </c>
-      <c r="K88" s="14">
-        <v>181.05308299999999</v>
-      </c>
-      <c r="L88" s="14">
-        <v>-201.66625999999999</v>
-      </c>
-      <c r="M88" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="N88" s="14">
-        <v>-256.988023</v>
-      </c>
-      <c r="O88" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="P88" s="14">
-        <v>38.559452</v>
-      </c>
-      <c r="Q88" s="14">
-        <v>-81.039837000000006</v>
-      </c>
-      <c r="R88" s="14">
-        <v>351.81887699999999</v>
-      </c>
-      <c r="S88" s="14">
         <v>-129.29979</v>
       </c>
-      <c r="T88" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="U88" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H88" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I88" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>80</v>
       </c>
@@ -11870,18 +8222,6 @@
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
       <c r="I89" s="7"/>
-      <c r="J89" s="7"/>
-      <c r="K89" s="7"/>
-      <c r="L89" s="7"/>
-      <c r="M89" s="7"/>
-      <c r="N89" s="7"/>
-      <c r="O89" s="7"/>
-      <c r="P89" s="7"/>
-      <c r="Q89" s="7"/>
-      <c r="R89" s="7"/>
-      <c r="S89" s="7"/>
-      <c r="T89" s="7"/>
-      <c r="U89" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
